--- a/etf_dfs/EWO.xlsx
+++ b/etf_dfs/EWO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWO</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -456,13 +462,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>5.894315242767334</v>
+        <v>5.89431619644165</v>
       </c>
       <c r="G2">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>10.9375</v>
       </c>
       <c r="F3">
-        <v>5.860824108123779</v>
+        <v>5.860823631286621</v>
       </c>
       <c r="G3">
         <v>20000</v>
@@ -488,7 +494,7 @@
         <v>-0.005681818181818232</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -505,7 +511,7 @@
         <v>11.5</v>
       </c>
       <c r="F4">
-        <v>6.162238121032715</v>
+        <v>6.162240505218506</v>
       </c>
       <c r="G4">
         <v>25100</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.05142857142857138</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.04038314376971224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -531,7 +540,7 @@
         <v>10.875</v>
       </c>
       <c r="F5">
-        <v>5.827335357666016</v>
+        <v>5.827334880828857</v>
       </c>
       <c r="G5">
         <v>19200</v>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>-0.05434782608695654</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.05294434687832823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>10.8125</v>
       </c>
       <c r="F6">
-        <v>5.793842315673828</v>
+        <v>5.793843269348145</v>
       </c>
       <c r="G6">
         <v>900</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.005747126436781658</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.0432528572238117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>10.4375</v>
       </c>
       <c r="F7">
-        <v>5.667580604553223</v>
+        <v>5.66757869720459</v>
       </c>
       <c r="G7">
         <v>900</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.03468208092485547</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.03995606881825764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>-0.02994011976047906</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.03667087902739339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>10.0625</v>
       </c>
       <c r="F9">
-        <v>5.463953971862793</v>
+        <v>5.463955402374268</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>-0.006172839506172867</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.03357983937519989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>10.25</v>
       </c>
       <c r="F10">
-        <v>5.565766334533691</v>
+        <v>5.56576681137085</v>
       </c>
       <c r="G10">
         <v>100</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.01863354037267073</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.03294047543547347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>10.5</v>
       </c>
       <c r="F11">
-        <v>5.701516628265381</v>
+        <v>5.701517581939697</v>
       </c>
       <c r="G11">
         <v>200</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0.02439024390243905</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.03268454233198342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>10.1875</v>
       </c>
       <c r="F12">
-        <v>5.531828880310059</v>
+        <v>5.53183126449585</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>-0.02976190476190477</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.03181968109416159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>10.1875</v>
       </c>
       <c r="F13">
-        <v>5.531828880310059</v>
+        <v>5.53183126449585</v>
       </c>
       <c r="G13">
         <v>800</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.03026450236579038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>10.375</v>
       </c>
       <c r="F14">
-        <v>5.633640289306641</v>
+        <v>5.633641242980957</v>
       </c>
       <c r="G14">
         <v>10000</v>
@@ -774,13 +810,16 @@
         <v>0.01840490797546002</v>
       </c>
       <c r="I14">
-        <v>-0.05681818181818177</v>
+        <v>0.02974062367628542</v>
       </c>
       <c r="J14">
         <v>-0.05681818181818177</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>-0.05681818181818177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>10.0625</v>
       </c>
       <c r="F15">
-        <v>5.463953971862793</v>
+        <v>5.463955402374268</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -806,13 +845,16 @@
         <v>-0.03012048192771088</v>
       </c>
       <c r="I15">
-        <v>-0.07999999999999996</v>
+        <v>0.02935065747517825</v>
       </c>
       <c r="J15">
         <v>-0.07999999999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>-0.07999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>10.6875</v>
       </c>
       <c r="F16">
-        <v>5.803330898284912</v>
+        <v>5.803330421447754</v>
       </c>
       <c r="G16">
         <v>300</v>
@@ -838,13 +880,16 @@
         <v>0.06211180124223592</v>
       </c>
       <c r="I16">
-        <v>-0.07065217391304346</v>
+        <v>0.03362692333536478</v>
       </c>
       <c r="J16">
         <v>-0.07065217391304346</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>-0.07065217391304346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -870,13 +915,16 @@
         <v>-0.01169590643274854</v>
       </c>
       <c r="I17">
-        <v>-0.02873563218390807</v>
+        <v>0.03250975384211532</v>
       </c>
       <c r="J17">
         <v>-0.02873563218390807</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>-0.02873563218390807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>11.375</v>
       </c>
       <c r="F18">
-        <v>6.176644802093506</v>
+        <v>6.176642894744873</v>
       </c>
       <c r="G18">
         <v>600</v>
@@ -902,13 +950,16 @@
         <v>0.07692307692307687</v>
       </c>
       <c r="I18">
-        <v>0.05202312138728327</v>
+        <v>0.03711904316433505</v>
       </c>
       <c r="J18">
         <v>0.05202312138728327</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.05202312138728327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>10.4375</v>
       </c>
       <c r="F19">
-        <v>5.667580604553223</v>
+        <v>5.66757869720459</v>
       </c>
       <c r="G19">
         <v>700</v>
@@ -934,13 +985,16 @@
         <v>-0.08241758241758246</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04145148190750379</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>11.25</v>
       </c>
       <c r="F20">
-        <v>6.108766555786133</v>
+        <v>6.108767509460449</v>
       </c>
       <c r="G20">
         <v>300</v>
@@ -966,13 +1020,16 @@
         <v>0.07784431137724557</v>
       </c>
       <c r="I20">
-        <v>0.1111111111111112</v>
+        <v>0.04442713641384279</v>
       </c>
       <c r="J20">
         <v>0.1111111111111112</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.1111111111111112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -998,13 +1055,16 @@
         <v>-0.03888888888888886</v>
       </c>
       <c r="I21">
-        <v>0.07453416149068315</v>
+        <v>0.04419129634658818</v>
       </c>
       <c r="J21">
         <v>0.07453416149068315</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.07453416149068315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>5.430016040802002</v>
+        <v>5.43001651763916</v>
       </c>
       <c r="G22">
         <v>500</v>
@@ -1030,13 +1090,16 @@
         <v>-0.07514450867052025</v>
       </c>
       <c r="I22">
-        <v>-0.02439024390243905</v>
+        <v>0.04617936299693748</v>
       </c>
       <c r="J22">
         <v>-0.02439024390243905</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>-0.02439024390243905</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>10.75</v>
       </c>
       <c r="F23">
-        <v>5.857145309448242</v>
+        <v>5.8571457862854</v>
       </c>
       <c r="G23">
         <v>5000</v>
@@ -1062,13 +1125,16 @@
         <v>0.07499999999999996</v>
       </c>
       <c r="I23">
-        <v>0.02380952380952372</v>
+        <v>0.04817850793854889</v>
       </c>
       <c r="J23">
         <v>0.02380952380952372</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.02380952380952372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>5.99336051940918</v>
+        <v>5.993359088897705</v>
       </c>
       <c r="G24">
         <v>200</v>
@@ -1094,13 +1160,16 @@
         <v>0.02325581395348841</v>
       </c>
       <c r="I24">
-        <v>0.07975460122699385</v>
+        <v>0.0472779702853178</v>
       </c>
       <c r="J24">
         <v>0.07975460122699385</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.07975460122699385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1126,13 +1195,16 @@
         <v>0.03977272727272729</v>
       </c>
       <c r="I25">
-        <v>0.1226993865030674</v>
+        <v>0.04689088484980013</v>
       </c>
       <c r="J25">
         <v>0.1226993865030674</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.1226993865030674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>12.1875</v>
       </c>
       <c r="F26">
-        <v>6.640369415283203</v>
+        <v>6.64037036895752</v>
       </c>
       <c r="G26">
         <v>3000</v>
@@ -1158,13 +1230,16 @@
         <v>0.06557377049180335</v>
       </c>
       <c r="I26">
-        <v>0.1746987951807228</v>
+        <v>0.0476196148720304</v>
       </c>
       <c r="J26">
         <v>0.1746987951807228</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.1746987951807228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>12.9375</v>
       </c>
       <c r="F27">
-        <v>7.049006462097168</v>
+        <v>7.04900598526001</v>
       </c>
       <c r="G27">
         <v>900</v>
@@ -1190,13 +1265,16 @@
         <v>0.06153846153846154</v>
       </c>
       <c r="I27">
-        <v>0.2857142857142858</v>
+        <v>0.04795170197830141</v>
       </c>
       <c r="J27">
         <v>0.2857142857142858</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.2857142857142858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>13.75</v>
       </c>
       <c r="F28">
-        <v>7.49169921875</v>
+        <v>7.491698741912842</v>
       </c>
       <c r="G28">
         <v>24500</v>
@@ -1222,13 +1300,16 @@
         <v>0.06280193236714982</v>
       </c>
       <c r="I28">
-        <v>0.2865497076023391</v>
+        <v>0.04821354837023668</v>
       </c>
       <c r="J28">
         <v>0.2865497076023391</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.2865497076023391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>12.625</v>
       </c>
       <c r="F29">
-        <v>6.878738880157471</v>
+        <v>6.878741264343262</v>
       </c>
       <c r="G29">
         <v>1800</v>
@@ -1254,13 +1335,16 @@
         <v>-0.08181818181818179</v>
       </c>
       <c r="I29">
-        <v>0.1952662721893492</v>
+        <v>0.05045370340289033</v>
       </c>
       <c r="J29">
         <v>0.1952662721893492</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.1952662721893492</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>12.75</v>
       </c>
       <c r="F30">
-        <v>6.946849822998047</v>
+        <v>6.946846485137939</v>
       </c>
       <c r="G30">
         <v>3100</v>
@@ -1286,13 +1370,16 @@
         <v>0.00990099009900991</v>
       </c>
       <c r="I30">
-        <v>0.1208791208791209</v>
+        <v>0.04951512612921458</v>
       </c>
       <c r="J30">
         <v>0.1208791208791209</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.1208791208791209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1318,13 +1405,16 @@
         <v>-0.2450980392156863</v>
       </c>
       <c r="I31">
-        <v>-0.07784431137724546</v>
+        <v>0.06742757745500641</v>
       </c>
       <c r="J31">
         <v>-0.07784431137724546</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>-0.07784431137724546</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1350,13 +1440,16 @@
         <v>-0.06493506493506496</v>
       </c>
       <c r="I32">
-        <v>-0.2</v>
+        <v>0.06723743692144075</v>
       </c>
       <c r="J32">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>10.0625</v>
       </c>
       <c r="F33">
-        <v>5.826452732086182</v>
+        <v>5.826452255249023</v>
       </c>
       <c r="G33">
         <v>14700</v>
@@ -1382,13 +1475,16 @@
         <v>0.1180555555555556</v>
       </c>
       <c r="I33">
-        <v>-0.06936416184971095</v>
+        <v>0.06966401663940688</v>
       </c>
       <c r="J33">
         <v>-0.06936416184971095</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>-0.06936416184971095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1414,13 +1510,16 @@
         <v>-0.05590062111801242</v>
       </c>
       <c r="I34">
-        <v>-0.05000000000000004</v>
+        <v>0.06923121852865501</v>
       </c>
       <c r="J34">
         <v>-0.05000000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>-0.05000000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>9.8125</v>
       </c>
       <c r="F35">
-        <v>6.091410636901855</v>
+        <v>6.091411590576172</v>
       </c>
       <c r="G35">
         <v>2000</v>
@@ -1446,13 +1545,16 @@
         <v>0.03289473684210531</v>
       </c>
       <c r="I35">
-        <v>-0.08720930232558144</v>
+        <v>0.06841242307296896</v>
       </c>
       <c r="J35">
         <v>-0.08720930232558144</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>-0.08720930232558144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>9.375</v>
       </c>
       <c r="F36">
-        <v>5.819817066192627</v>
+        <v>5.819818496704102</v>
       </c>
       <c r="G36">
         <v>400</v>
@@ -1478,13 +1580,16 @@
         <v>-0.04458598726114649</v>
       </c>
       <c r="I36">
-        <v>-0.1477272727272727</v>
+        <v>0.06778085532330008</v>
       </c>
       <c r="J36">
         <v>-0.1477272727272727</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>-0.1477272727272727</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>9.5625</v>
       </c>
       <c r="F37">
-        <v>5.936214447021484</v>
+        <v>5.936216354370117</v>
       </c>
       <c r="G37">
         <v>7800</v>
@@ -1510,13 +1615,16 @@
         <v>0.02000000000000002</v>
       </c>
       <c r="I37">
-        <v>-0.1639344262295082</v>
+        <v>0.06688299946270786</v>
       </c>
       <c r="J37">
         <v>-0.1639344262295082</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>-0.1639344262295082</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>9.375</v>
       </c>
       <c r="F38">
-        <v>5.819817066192627</v>
+        <v>5.819818496704102</v>
       </c>
       <c r="G38">
         <v>500</v>
@@ -1542,13 +1650,16 @@
         <v>-0.01960784313725494</v>
       </c>
       <c r="I38">
-        <v>-0.2307692307692307</v>
+        <v>0.06598837139321617</v>
       </c>
       <c r="J38">
         <v>-0.2307692307692307</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.2307692307692307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>9.8125</v>
       </c>
       <c r="F39">
-        <v>6.091410636901855</v>
+        <v>6.091411590576172</v>
       </c>
       <c r="G39">
         <v>2100</v>
@@ -1574,13 +1685,16 @@
         <v>0.04666666666666663</v>
       </c>
       <c r="I39">
-        <v>-0.2415458937198067</v>
+        <v>0.06555883003723258</v>
       </c>
       <c r="J39">
         <v>-0.2415458937198067</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.2415458937198067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>9.25</v>
       </c>
       <c r="F40">
-        <v>5.742221355438232</v>
+        <v>5.742220401763916</v>
       </c>
       <c r="G40">
         <v>10100</v>
@@ -1606,13 +1720,16 @@
         <v>-0.0573248407643312</v>
       </c>
       <c r="I40">
-        <v>-0.3272727272727273</v>
+        <v>0.06531262470668427</v>
       </c>
       <c r="J40">
         <v>-0.3272727272727273</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.3272727272727273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>9.5</v>
       </c>
       <c r="F41">
-        <v>5.897415637969971</v>
+        <v>5.897417068481445</v>
       </c>
       <c r="G41">
         <v>17800</v>
@@ -1638,13 +1755,16 @@
         <v>0.02702702702702697</v>
       </c>
       <c r="I41">
-        <v>-0.2475247524752475</v>
+        <v>0.06461877686386475</v>
       </c>
       <c r="J41">
         <v>-0.2475247524752475</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.2475247524752475</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>9.25</v>
       </c>
       <c r="F42">
-        <v>5.742221355438232</v>
+        <v>5.742220401763916</v>
       </c>
       <c r="G42">
         <v>4900</v>
@@ -1670,13 +1790,16 @@
         <v>-0.02631578947368418</v>
       </c>
       <c r="I42">
-        <v>-0.2745098039215687</v>
+        <v>0.06390473860735488</v>
       </c>
       <c r="J42">
         <v>-0.2745098039215687</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.2745098039215687</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>9.125</v>
       </c>
       <c r="F43">
-        <v>5.727355003356934</v>
+        <v>5.727356433868408</v>
       </c>
       <c r="G43">
         <v>800</v>
@@ -1702,13 +1825,16 @@
         <v>-0.01351351351351349</v>
       </c>
       <c r="I43">
-        <v>-0.05194805194805197</v>
+        <v>0.0631256095084379</v>
       </c>
       <c r="J43">
         <v>-0.05194805194805197</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>-0.05194805194805197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>8.625</v>
       </c>
       <c r="F44">
-        <v>5.413529396057129</v>
+        <v>5.413527488708496</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1734,13 +1860,16 @@
         <v>-0.0547945205479452</v>
       </c>
       <c r="I44">
-        <v>-0.04166666666666663</v>
+        <v>0.06287150196372504</v>
       </c>
       <c r="J44">
         <v>-0.04166666666666663</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>-0.04166666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>8.5</v>
       </c>
       <c r="F45">
-        <v>5.335070610046387</v>
+        <v>5.335071563720703</v>
       </c>
       <c r="G45">
         <v>5900</v>
@@ -1766,13 +1895,16 @@
         <v>-0.01449275362318836</v>
       </c>
       <c r="I45">
-        <v>-0.15527950310559</v>
+        <v>0.0621402395795052</v>
       </c>
       <c r="J45">
         <v>-0.15527950310559</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.15527950310559</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>8.125</v>
       </c>
       <c r="F46">
-        <v>5.099699974060059</v>
+        <v>5.0996994972229</v>
       </c>
       <c r="G46">
         <v>3500</v>
@@ -1798,13 +1930,16 @@
         <v>-0.04411764705882348</v>
       </c>
       <c r="I46">
-        <v>-0.1447368421052632</v>
+        <v>0.06171093454051519</v>
       </c>
       <c r="J46">
         <v>-0.1447368421052632</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.1447368421052632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>8.3125</v>
       </c>
       <c r="F47">
-        <v>5.217384815216064</v>
+        <v>5.217385292053223</v>
       </c>
       <c r="G47">
         <v>44600</v>
@@ -1830,13 +1965,16 @@
         <v>0.02307692307692299</v>
       </c>
       <c r="I47">
-        <v>-0.1528662420382165</v>
+        <v>0.06114786807508854</v>
       </c>
       <c r="J47">
         <v>-0.1528662420382165</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.1528662420382165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>8.125</v>
       </c>
       <c r="F48">
-        <v>5.099699974060059</v>
+        <v>5.0996994972229</v>
       </c>
       <c r="G48">
         <v>1100</v>
@@ -1862,13 +2000,16 @@
         <v>-0.02255639097744366</v>
       </c>
       <c r="I48">
-        <v>-0.1333333333333333</v>
+        <v>0.06052476354117017</v>
       </c>
       <c r="J48">
         <v>-0.1333333333333333</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>7.75</v>
       </c>
       <c r="F49">
-        <v>4.864329814910889</v>
+        <v>4.864328861236572</v>
       </c>
       <c r="G49">
         <v>3900</v>
@@ -1894,13 +2035,16 @@
         <v>-0.0461538461538461</v>
       </c>
       <c r="I49">
-        <v>-0.1895424836601307</v>
+        <v>0.06016846267707467</v>
       </c>
       <c r="J49">
         <v>-0.1895424836601307</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.1895424836601307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>7.75</v>
       </c>
       <c r="F50">
-        <v>4.864329814910889</v>
+        <v>4.864328861236572</v>
       </c>
       <c r="G50">
         <v>1500</v>
@@ -1926,13 +2070,16 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>-0.1733333333333333</v>
+        <v>0.05953030746438619</v>
       </c>
       <c r="J50">
         <v>-0.1733333333333333</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.1733333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>7.5625</v>
       </c>
       <c r="F51">
-        <v>4.746644496917725</v>
+        <v>4.74664306640625</v>
       </c>
       <c r="G51">
         <v>10700</v>
@@ -1958,13 +2105,16 @@
         <v>-0.02419354838709675</v>
       </c>
       <c r="I51">
-        <v>-0.2292993630573248</v>
+        <v>0.05896790866992968</v>
       </c>
       <c r="J51">
         <v>-0.2292993630573248</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.2292993630573248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1990,13 +2140,16 @@
         <v>0.04958677685950419</v>
       </c>
       <c r="I52">
-        <v>-0.1418918918918919</v>
+        <v>0.05888656549849468</v>
       </c>
       <c r="J52">
         <v>-0.1418918918918919</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.1418918918918919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2022,13 +2175,16 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>-0.1644736842105263</v>
+        <v>0.05829844449709034</v>
       </c>
       <c r="J53">
         <v>-0.1644736842105263</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.1644736842105263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>5.021243572235107</v>
+        <v>5.021243095397949</v>
       </c>
       <c r="G54">
         <v>1500</v>
@@ -2054,13 +2210,16 @@
         <v>0.007874015748031482</v>
       </c>
       <c r="I54">
-        <v>-0.1351351351351351</v>
+        <v>0.05775001752720042</v>
       </c>
       <c r="J54">
         <v>-0.1351351351351351</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.1351351351351351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2086,13 +2245,16 @@
         <v>-0.03125</v>
       </c>
       <c r="I55">
-        <v>-0.1506849315068494</v>
+        <v>0.05731109177215783</v>
       </c>
       <c r="J55">
         <v>-0.1506849315068494</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.1506849315068494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>7.6875</v>
       </c>
       <c r="F56">
-        <v>4.852395057678223</v>
+        <v>4.852396011352539</v>
       </c>
       <c r="G56">
         <v>8000</v>
@@ -2118,13 +2280,16 @@
         <v>-0.008064516129032251</v>
       </c>
       <c r="I56">
-        <v>-0.1086956521739131</v>
+        <v>0.05676950327427848</v>
       </c>
       <c r="J56">
         <v>-0.1086956521739131</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.1086956521739131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>7.1875</v>
       </c>
       <c r="F57">
-        <v>4.536791324615479</v>
+        <v>4.536792755126953</v>
       </c>
       <c r="G57">
         <v>18600</v>
@@ -2150,13 +2315,16 @@
         <v>-0.06504065040650409</v>
       </c>
       <c r="I57">
-        <v>-0.1544117647058824</v>
+        <v>0.05682233527598226</v>
       </c>
       <c r="J57">
         <v>-0.1544117647058824</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1544117647058824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="F58">
-        <v>4.418441772460938</v>
+        <v>4.418440818786621</v>
       </c>
       <c r="G58">
         <v>3600</v>
@@ -2182,13 +2350,16 @@
         <v>-0.02608695652173909</v>
       </c>
       <c r="I58">
-        <v>-0.1384615384615384</v>
+        <v>0.05636716194877641</v>
       </c>
       <c r="J58">
         <v>-0.1384615384615384</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.1384615384615384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2205,7 +2376,7 @@
         <v>7.5625</v>
       </c>
       <c r="F59">
-        <v>4.80020809173584</v>
+        <v>4.800209999084473</v>
       </c>
       <c r="G59">
         <v>18800</v>
@@ -2214,13 +2385,16 @@
         <v>0.08035714285714279</v>
       </c>
       <c r="I59">
-        <v>-0.09022556390977443</v>
+        <v>0.05703096329918336</v>
       </c>
       <c r="J59">
         <v>-0.09022556390977443</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.09022556390977443</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2246,13 +2420,16 @@
         <v>0.0433057674691697</v>
       </c>
       <c r="I60">
-        <v>-0.02892309335561905</v>
+        <v>0.0568812529038611</v>
       </c>
       <c r="J60">
         <v>-0.02892309335561905</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.02892309335561905</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2278,13 +2455,16 @@
         <v>0.08365023262582749</v>
       </c>
       <c r="I61">
-        <v>0.1032258310625631</v>
+        <v>0.05753268327116983</v>
       </c>
       <c r="J61">
         <v>0.1032258310625631</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0.1032258310625631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F62">
-        <v>5.046170234680176</v>
+        <v>5.046169757843018</v>
       </c>
       <c r="G62">
         <v>5200</v>
@@ -2310,13 +2490,16 @@
         <v>-0.07017548164734688</v>
       </c>
       <c r="I62">
-        <v>0.02580642700195312</v>
+        <v>0.05770728445199629</v>
       </c>
       <c r="J62">
         <v>0.02580642700195312</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>0.02580642700195312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2333,7 +2516,7 @@
         <v>8.159999847412109</v>
       </c>
       <c r="F63">
-        <v>5.179465770721436</v>
+        <v>5.179464340209961</v>
       </c>
       <c r="G63">
         <v>1300</v>
@@ -2342,13 +2525,16 @@
         <v>0.02641509977172984</v>
       </c>
       <c r="I63">
-        <v>0.07900824428589881</v>
+        <v>0.05735392065671541</v>
       </c>
       <c r="J63">
         <v>0.07900824428589881</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0.07900824428589881</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F64">
-        <v>4.963654041290283</v>
+        <v>4.963654518127441</v>
       </c>
       <c r="G64">
         <v>400</v>
@@ -2374,13 +2560,16 @@
         <v>-0.04166662770938179</v>
       </c>
       <c r="I64">
-        <v>-0.0148031279796691</v>
+        <v>0.05709145203218102</v>
       </c>
       <c r="J64">
         <v>-0.0148031279796691</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.0148031279796691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2406,13 +2595,16 @@
         <v>0.003836282904430943</v>
       </c>
       <c r="I65">
-        <v>-0.01102363406203866</v>
+        <v>0.05663734437671264</v>
       </c>
       <c r="J65">
         <v>-0.01102363406203866</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.01102363406203866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>8.180000305175781</v>
       </c>
       <c r="F66">
-        <v>5.192158699035645</v>
+        <v>5.192160606384277</v>
       </c>
       <c r="G66">
         <v>3000</v>
@@ -2438,13 +2630,16 @@
         <v>0.04203826809583378</v>
       </c>
       <c r="I66">
-        <v>0.02250003814697266</v>
+        <v>0.05647595186052481</v>
       </c>
       <c r="J66">
         <v>0.02250003814697266</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0.02250003814697266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>8.25</v>
       </c>
       <c r="F67">
-        <v>5.322770118713379</v>
+        <v>5.322771549224854</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -2470,13 +2665,16 @@
         <v>0.008557419585904835</v>
       </c>
       <c r="I67">
-        <v>0.06451612903225801</v>
+        <v>0.05605122815075879</v>
       </c>
       <c r="J67">
         <v>0.06451612903225801</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0.06451612903225801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2502,13 +2700,16 @@
         <v>-0.1272727503921046</v>
       </c>
       <c r="I68">
-        <v>-0.06341465895738063</v>
+        <v>0.05769048140406596</v>
       </c>
       <c r="J68">
         <v>-0.06341465895738063</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.06341465895738063</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>6.75</v>
       </c>
       <c r="F69">
-        <v>4.354993343353271</v>
+        <v>4.35499382019043</v>
       </c>
       <c r="G69">
         <v>1500</v>
@@ -2534,13 +2735,16 @@
         <v>-0.06249997516473071</v>
       </c>
       <c r="I69">
-        <v>-0.06086956521739129</v>
+        <v>0.05768594637380249</v>
       </c>
       <c r="J69">
         <v>-0.06086956521739129</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.06086956521739129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>7.369999885559082</v>
       </c>
       <c r="F70">
-        <v>4.755007743835449</v>
+        <v>4.755008220672607</v>
       </c>
       <c r="G70">
         <v>28600</v>
@@ -2566,13 +2770,16 @@
         <v>0.09185183489764182</v>
       </c>
       <c r="I70">
-        <v>0.05285712650844032</v>
+        <v>0.05845928487662516</v>
       </c>
       <c r="J70">
         <v>0.05285712650844032</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.05285712650844032</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="F71">
-        <v>4.696942329406738</v>
+        <v>4.69694185256958</v>
       </c>
       <c r="G71">
         <v>5700</v>
@@ -2598,13 +2805,16 @@
         <v>-0.01221162512187812</v>
       </c>
       <c r="I71">
-        <v>-0.03735534415757358</v>
+        <v>0.05803604664312031</v>
       </c>
       <c r="J71">
         <v>-0.03735534415757358</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.03735534415757358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>7.380000114440918</v>
       </c>
       <c r="F72">
-        <v>4.761459350585938</v>
+        <v>4.761460781097412</v>
       </c>
       <c r="G72">
         <v>400</v>
@@ -2630,13 +2840,16 @@
         <v>0.01373625024046543</v>
       </c>
       <c r="I72">
-        <v>-0.06463875293724741</v>
+        <v>0.05765394157111717</v>
       </c>
       <c r="J72">
         <v>-0.06463875293724741</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.06463875293724741</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>7.739999771118164</v>
       </c>
       <c r="F73">
-        <v>4.993726253509521</v>
+        <v>4.993724822998047</v>
       </c>
       <c r="G73">
         <v>9400</v>
@@ -2662,13 +2875,16 @@
         <v>0.04878044052774633</v>
       </c>
       <c r="I73">
-        <v>-0.09473688906983291</v>
+        <v>0.05758194568834182</v>
       </c>
       <c r="J73">
         <v>-0.09473688906983291</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.09473688906983291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>8.270000457763672</v>
       </c>
       <c r="F74">
-        <v>5.335674285888672</v>
+        <v>5.335673809051514</v>
       </c>
       <c r="G74">
         <v>6200</v>
@@ -2694,13 +2910,16 @@
         <v>0.06847554293518288</v>
       </c>
       <c r="I74">
-        <v>0.04025165486489679</v>
+        <v>0.05779605030600159</v>
       </c>
       <c r="J74">
         <v>0.04025165486489679</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.04025165486489679</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>8.930000305175781</v>
       </c>
       <c r="F75">
-        <v>5.761497020721436</v>
+        <v>5.761494636535645</v>
       </c>
       <c r="G75">
         <v>31200</v>
@@ -2726,13 +2945,16 @@
         <v>0.07980650675690315</v>
       </c>
       <c r="I75">
-        <v>0.09436280296106525</v>
+        <v>0.05819088712656929</v>
       </c>
       <c r="J75">
         <v>0.09436280296106525</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.09436280296106525</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>9.130000114440918</v>
       </c>
       <c r="F76">
-        <v>5.890531063079834</v>
+        <v>5.890532970428467</v>
       </c>
       <c r="G76">
         <v>11000</v>
@@ -2758,13 +2980,16 @@
         <v>0.0223963944490817</v>
       </c>
       <c r="I76">
-        <v>0.1675191705911725</v>
+        <v>0.05785548723403126</v>
       </c>
       <c r="J76">
         <v>0.1675191705911725</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.1675191705911725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2790,13 +3015,16 @@
         <v>0.002190526159766559</v>
       </c>
       <c r="I77">
-        <v>0.1656050611071382</v>
+        <v>0.05746427133616076</v>
       </c>
       <c r="J77">
         <v>0.1656050611071382</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.1656050611071382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>8.199999809265137</v>
       </c>
       <c r="F78">
-        <v>5.290511608123779</v>
+        <v>5.290511131286621</v>
       </c>
       <c r="G78">
         <v>1700</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1038251200952215</v>
       </c>
       <c r="I78">
-        <v>0.002444927059073621</v>
+        <v>0.05829163282332211</v>
       </c>
       <c r="J78">
         <v>0.002444927059073621</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0.002444927059073621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>8.029999732971191</v>
       </c>
       <c r="F79">
-        <v>5.18082857131958</v>
+        <v>5.180829524993896</v>
       </c>
       <c r="G79">
         <v>1100</v>
@@ -2854,13 +3085,16 @@
         <v>-0.0207317171034398</v>
       </c>
       <c r="I79">
-        <v>-0.02666669903379493</v>
+        <v>0.05794576076449643</v>
       </c>
       <c r="J79">
         <v>-0.02666669903379493</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.02666669903379493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2877,7 +3111,7 @@
         <v>7.550000190734863</v>
       </c>
       <c r="F80">
-        <v>4.871142387390137</v>
+        <v>4.87114143371582</v>
       </c>
       <c r="G80">
         <v>211000</v>
@@ -2886,13 +3120,16 @@
         <v>-0.05977578557885244</v>
       </c>
       <c r="I80">
-        <v>0.0486111653807737</v>
+        <v>0.05793434450238477</v>
       </c>
       <c r="J80">
         <v>0.0486111653807737</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.0486111653807737</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>7.789999961853027</v>
       </c>
       <c r="F81">
-        <v>5.025984287261963</v>
+        <v>5.025985717773438</v>
       </c>
       <c r="G81">
         <v>3400</v>
@@ -2918,13 +3155,16 @@
         <v>0.03178804835166549</v>
       </c>
       <c r="I81">
-        <v>0.1540740684226707</v>
+        <v>0.0576953176260189</v>
       </c>
       <c r="J81">
         <v>0.1540740684226707</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0.1540740684226707</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>7.909999847412109</v>
       </c>
       <c r="F82">
-        <v>5.10340690612793</v>
+        <v>5.103407382965088</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2950,13 +3190,16 @@
         <v>0.01540434995464834</v>
       </c>
       <c r="I82">
-        <v>0.07327000953027341</v>
+        <v>0.05736448531888285</v>
       </c>
       <c r="J82">
         <v>0.07327000953027341</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0.07327000953027341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>8.609999656677246</v>
       </c>
       <c r="F83">
-        <v>5.62287425994873</v>
+        <v>5.622874736785889</v>
       </c>
       <c r="G83">
         <v>3700</v>
@@ -2982,13 +3225,16 @@
         <v>0.08849555281523225</v>
       </c>
       <c r="I83">
-        <v>0.1826922264476019</v>
+        <v>0.05789288353073459</v>
       </c>
       <c r="J83">
         <v>0.1826922264476019</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0.1826922264476019</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>8.930000305175781</v>
       </c>
       <c r="F84">
-        <v>5.831856727600098</v>
+        <v>5.831857204437256</v>
       </c>
       <c r="G84">
         <v>8600</v>
@@ -3014,13 +3260,16 @@
         <v>0.03716616274779616</v>
       </c>
       <c r="I84">
-        <v>0.2100271228589656</v>
+        <v>0.057690957726112</v>
       </c>
       <c r="J84">
         <v>0.2100271228589656</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>0.2100271228589656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>8.800000190734863</v>
       </c>
       <c r="F85">
-        <v>5.74695873260498</v>
+        <v>5.746959686279297</v>
       </c>
       <c r="G85">
         <v>4000</v>
@@ -3046,13 +3295,16 @@
         <v>-0.01455768309051131</v>
       </c>
       <c r="I85">
-        <v>0.1369509626566263</v>
+        <v>0.0573579163737166</v>
       </c>
       <c r="J85">
         <v>0.1369509626566263</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>0.1369509626566263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>8.850000381469727</v>
       </c>
       <c r="F86">
-        <v>5.779611110687256</v>
+        <v>5.779610633850098</v>
       </c>
       <c r="G86">
         <v>25200</v>
@@ -3078,13 +3330,16 @@
         <v>0.005681839733084004</v>
       </c>
       <c r="I86">
-        <v>0.07013299777529824</v>
+        <v>0.0570159867586254</v>
       </c>
       <c r="J86">
         <v>0.07013299777529824</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>0.07013299777529824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>9.890000343322754</v>
       </c>
       <c r="F87">
-        <v>6.458796501159668</v>
+        <v>6.458796977996826</v>
       </c>
       <c r="G87">
         <v>52000</v>
@@ -3110,13 +3365,16 @@
         <v>0.1175141149180734</v>
       </c>
       <c r="I87">
-        <v>0.1075028001500249</v>
+        <v>0.05811295032075586</v>
       </c>
       <c r="J87">
         <v>0.1075028001500249</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0.1075028001500249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="F88">
-        <v>6.98777961730957</v>
+        <v>6.987778663635254</v>
       </c>
       <c r="G88">
         <v>58700</v>
@@ -3142,13 +3400,16 @@
         <v>0.08190085316723517</v>
       </c>
       <c r="I88">
-        <v>0.1719605339698682</v>
+        <v>0.05843341841249648</v>
       </c>
       <c r="J88">
         <v>0.1719605339698682</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0.1719605339698682</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>10.75</v>
       </c>
       <c r="F89">
-        <v>7.020432472229004</v>
+        <v>7.020431995391846</v>
       </c>
       <c r="G89">
         <v>28900</v>
@@ -3174,13 +3435,16 @@
         <v>0.00467291510524781</v>
       </c>
       <c r="I89">
-        <v>0.1748634369589983</v>
+        <v>0.05809373654191489</v>
       </c>
       <c r="J89">
         <v>0.1748634369589983</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0.1748634369589983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>11.02000045776367</v>
       </c>
       <c r="F90">
-        <v>7.19675874710083</v>
+        <v>7.196755886077881</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3206,13 +3470,16 @@
         <v>0.0251163216524346</v>
       </c>
       <c r="I90">
-        <v>0.3439025261088704</v>
+        <v>0.05781389224125787</v>
       </c>
       <c r="J90">
         <v>0.3439025261088704</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.3439025261088704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>10.56999969482422</v>
       </c>
       <c r="F91">
-        <v>6.902877330780029</v>
+        <v>6.90287971496582</v>
       </c>
       <c r="G91">
         <v>1000</v>
@@ -3238,13 +3505,16 @@
         <v>-0.04083491327102662</v>
       </c>
       <c r="I91">
-        <v>0.3163138289312493</v>
+        <v>0.05766130521931331</v>
       </c>
       <c r="J91">
         <v>0.3163138289312493</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.3163138289312493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>11.10000038146973</v>
       </c>
       <c r="F92">
-        <v>7.249006271362305</v>
+        <v>7.249003887176514</v>
       </c>
       <c r="G92">
         <v>7700</v>
@@ -3270,13 +3540,16 @@
         <v>0.05014197747848859</v>
       </c>
       <c r="I92">
-        <v>0.4701986888810041</v>
+        <v>0.05756753353290003</v>
       </c>
       <c r="J92">
         <v>0.4701986888810041</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.4701986888810041</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>11.59000015258789</v>
       </c>
       <c r="F93">
-        <v>7.569003105163574</v>
+        <v>7.56900691986084</v>
       </c>
       <c r="G93">
         <v>2400</v>
@@ -3302,13 +3575,16 @@
         <v>0.04414412200707374</v>
       </c>
       <c r="I93">
-        <v>0.487804904922098</v>
+        <v>0.05741865232645518</v>
       </c>
       <c r="J93">
         <v>0.487804904922098</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.487804904922098</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3334,13 +3610,16 @@
         <v>0.07851594783706006</v>
       </c>
       <c r="I94">
-        <v>0.5802781594350583</v>
+        <v>0.05765300185295513</v>
       </c>
       <c r="J94">
         <v>0.5802781594350583</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.5802781594350583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>13.35000038146973</v>
       </c>
       <c r="F95">
-        <v>8.832736968994141</v>
+        <v>8.832735061645508</v>
       </c>
       <c r="G95">
         <v>6900</v>
@@ -3366,13 +3645,16 @@
         <v>0.06800003051757808</v>
       </c>
       <c r="I95">
-        <v>0.5505227542159661</v>
+        <v>0.05773246660373674</v>
       </c>
       <c r="J95">
         <v>0.5505227542159661</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.5505227542159661</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3398,13 +3680,16 @@
         <v>0.09962545960314295</v>
       </c>
       <c r="I96">
-        <v>0.6438969544790867</v>
+        <v>0.05826577329639592</v>
       </c>
       <c r="J96">
         <v>0.6438969544790867</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.6438969544790867</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>15.27999973297119</v>
       </c>
       <c r="F97">
-        <v>10.10967445373535</v>
+        <v>10.10967540740967</v>
       </c>
       <c r="G97">
         <v>193400</v>
@@ -3430,13 +3715,16 @@
         <v>0.04087189477672326</v>
       </c>
       <c r="I97">
-        <v>0.7363635683847867</v>
+        <v>0.05807298810820045</v>
       </c>
       <c r="J97">
         <v>0.7363635683847867</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.7363635683847867</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>16.04999923706055</v>
       </c>
       <c r="F98">
-        <v>10.61913013458252</v>
+        <v>10.61912822723389</v>
       </c>
       <c r="G98">
         <v>179700</v>
@@ -3462,13 +3750,16 @@
         <v>0.05039263858282994</v>
       </c>
       <c r="I98">
-        <v>0.8135591576545345</v>
+        <v>0.05795045254750286</v>
       </c>
       <c r="J98">
         <v>0.8135591576545345</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.8135591576545345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>16.01000022888184</v>
       </c>
       <c r="F99">
-        <v>10.59266471862793</v>
+        <v>10.59266567230225</v>
       </c>
       <c r="G99">
         <v>367800</v>
@@ -3494,13 +3785,16 @@
         <v>-0.002492150160752105</v>
       </c>
       <c r="I99">
-        <v>0.6188068425792328</v>
+        <v>0.05765378267969457</v>
       </c>
       <c r="J99">
         <v>0.6188068425792328</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.6188068425792328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3526,13 +3820,16 @@
         <v>0.005621496021313677</v>
       </c>
       <c r="I100">
-        <v>0.504672959669469</v>
+        <v>0.0573558284857263</v>
       </c>
       <c r="J100">
         <v>0.504672959669469</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.504672959669469</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3558,13 +3855,16 @@
         <v>0.06521734237155941</v>
       </c>
       <c r="I101">
-        <v>0.5953488017237463</v>
+        <v>0.05737638598787552</v>
       </c>
       <c r="J101">
         <v>0.5953488017237463</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.5953488017237463</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>17.13999938964844</v>
       </c>
       <c r="F102">
-        <v>11.34030723571777</v>
+        <v>11.34030246734619</v>
       </c>
       <c r="G102">
         <v>25100</v>
@@ -3590,13 +3890,16 @@
         <v>-0.0005831037378584147</v>
       </c>
       <c r="I102">
-        <v>0.5553537820021759</v>
+        <v>0.0570898782178771</v>
       </c>
       <c r="J102">
         <v>0.5553537820021759</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.5553537820021759</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3622,13 +3925,16 @@
         <v>0.003500663677225901</v>
       </c>
       <c r="I103">
-        <v>0.6272470444215554</v>
+        <v>0.05680430658999347</v>
       </c>
       <c r="J103">
         <v>0.6272470444215554</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.6272470444215554</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3645,7 +3951,7 @@
         <v>17.86000061035156</v>
       </c>
       <c r="F104">
-        <v>11.81667995452881</v>
+        <v>11.81667709350586</v>
       </c>
       <c r="G104">
         <v>35700</v>
@@ -3654,13 +3960,16 @@
         <v>0.03837208244979839</v>
       </c>
       <c r="I104">
-        <v>0.6090090086993996</v>
+        <v>0.05661271862087534</v>
       </c>
       <c r="J104">
         <v>0.6090090086993996</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.6090090086993996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>18.95999908447266</v>
       </c>
       <c r="F105">
-        <v>12.54446601867676</v>
+        <v>12.54446887969971</v>
       </c>
       <c r="G105">
         <v>56000</v>
@@ -3686,13 +3995,16 @@
         <v>0.06159005803636641</v>
       </c>
       <c r="I105">
-        <v>0.6358929106863855</v>
+        <v>0.05659634385648304</v>
       </c>
       <c r="J105">
         <v>0.6358929106863855</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.6358929106863855</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>21.61000061035156</v>
       </c>
       <c r="F106">
-        <v>14.29778003692627</v>
+        <v>14.29778861999512</v>
       </c>
       <c r="G106">
         <v>196000</v>
@@ -3718,13 +4030,16 @@
         <v>0.1397680197173181</v>
       </c>
       <c r="I106">
-        <v>0.728800048828125</v>
+        <v>0.05780739324072121</v>
       </c>
       <c r="J106">
         <v>0.728800048828125</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.728800048828125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>23.02000045776367</v>
       </c>
       <c r="F107">
-        <v>15.2894811630249</v>
+        <v>15.28948307037354</v>
       </c>
       <c r="G107">
         <v>280200</v>
@@ -3750,13 +4065,16 @@
         <v>0.0652475616653474</v>
       </c>
       <c r="I107">
-        <v>0.7243445543055</v>
+        <v>0.05779739550220851</v>
       </c>
       <c r="J107">
         <v>0.7243445543055</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.7243445543055</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>22.34000015258789</v>
       </c>
       <c r="F108">
-        <v>14.83784103393555</v>
+        <v>14.83783912658691</v>
       </c>
       <c r="G108">
         <v>174600</v>
@@ -3782,13 +4100,16 @@
         <v>-0.02953954351232191</v>
       </c>
       <c r="I108">
-        <v>0.5217983438809191</v>
+        <v>0.05764167532135553</v>
       </c>
       <c r="J108">
         <v>0.5217983438809191</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.5217983438809191</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>24.36000061035156</v>
       </c>
       <c r="F109">
-        <v>16.17949104309082</v>
+        <v>16.17948913574219</v>
       </c>
       <c r="G109">
         <v>304200</v>
@@ -3814,13 +4135,16 @@
         <v>0.09042078979259416</v>
       </c>
       <c r="I109">
-        <v>0.5942409055012967</v>
+        <v>0.05791452644113524</v>
       </c>
       <c r="J109">
         <v>0.5942409055012967</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.5942409055012967</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>22.81999969482422</v>
       </c>
       <c r="F110">
-        <v>15.15665054321289</v>
+        <v>15.15664672851562</v>
       </c>
       <c r="G110">
         <v>75400</v>
@@ -3846,13 +4170,16 @@
         <v>-0.06321842680385381</v>
       </c>
       <c r="I110">
-        <v>0.4218069021543176</v>
+        <v>0.05806254404005733</v>
       </c>
       <c r="J110">
         <v>0.4218069021543176</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.4218069021543176</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>21.98999977111816</v>
       </c>
       <c r="F111">
-        <v>14.60537719726562</v>
+        <v>14.60537528991699</v>
       </c>
       <c r="G111">
         <v>85200</v>
@@ -3878,13 +4205,16 @@
         <v>-0.0363716009993772</v>
       </c>
       <c r="I111">
-        <v>0.3735165182226847</v>
+        <v>0.0579526695709021</v>
       </c>
       <c r="J111">
         <v>0.3735165182226847</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.3735165182226847</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="F112">
-        <v>15.0238151550293</v>
+        <v>15.02380847930908</v>
       </c>
       <c r="G112">
         <v>57800</v>
@@ -3910,13 +4240,16 @@
         <v>0.02864943495555106</v>
       </c>
       <c r="I112">
-        <v>0.4049689629366628</v>
+        <v>0.05771953634360228</v>
       </c>
       <c r="J112">
         <v>0.4049689629366628</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.4049689629366628</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3933,7 +4266,7 @@
         <v>23.98999977111816</v>
       </c>
       <c r="F113">
-        <v>15.93373680114746</v>
+        <v>15.93373870849609</v>
       </c>
       <c r="G113">
         <v>53200</v>
@@ -3942,13 +4275,16 @@
         <v>0.06056582144367395</v>
       </c>
       <c r="I113">
-        <v>0.3988338370105495</v>
+        <v>0.057670580118826</v>
       </c>
       <c r="J113">
         <v>0.3988338370105495</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.3988338370105495</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>24.80999946594238</v>
       </c>
       <c r="F114">
-        <v>16.47837066650391</v>
+        <v>16.47836685180664</v>
       </c>
       <c r="G114">
         <v>45800</v>
@@ -3974,13 +4310,16 @@
         <v>0.03418089631711574</v>
       </c>
       <c r="I114">
-        <v>0.4474912689277095</v>
+        <v>0.05746051602726589</v>
       </c>
       <c r="J114">
         <v>0.4474912689277095</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.4474912689277095</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F115">
-        <v>17.86651039123535</v>
+        <v>17.86650848388672</v>
       </c>
       <c r="G115">
         <v>111900</v>
@@ -4006,13 +4345,16 @@
         <v>0.08424023367904199</v>
       </c>
       <c r="I115">
-        <v>0.5639533968214259</v>
+        <v>0.05764001145334884</v>
       </c>
       <c r="J115">
         <v>0.5639533968214259</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.5639533968214259</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>26.97999954223633</v>
       </c>
       <c r="F116">
-        <v>17.91964912414551</v>
+        <v>17.91965103149414</v>
       </c>
       <c r="G116">
         <v>150400</v>
@@ -4038,13 +4380,16 @@
         <v>0.002973974901135268</v>
       </c>
       <c r="I116">
-        <v>0.5106382206167934</v>
+        <v>0.05738779151314249</v>
       </c>
       <c r="J116">
         <v>0.5106382206167934</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.5106382206167934</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>26.04999923706055</v>
       </c>
       <c r="F117">
-        <v>17.30195426940918</v>
+        <v>17.30196189880371</v>
       </c>
       <c r="G117">
         <v>280100</v>
@@ -4070,13 +4415,16 @@
         <v>-0.03446998965733472</v>
       </c>
       <c r="I117">
-        <v>0.3739451737840149</v>
+        <v>0.05728298135749969</v>
       </c>
       <c r="J117">
         <v>0.3739451737840149</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.3739451737840149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>26.6299991607666</v>
       </c>
       <c r="F118">
-        <v>17.68718338012695</v>
+        <v>17.68718147277832</v>
       </c>
       <c r="G118">
         <v>40200</v>
@@ -4102,13 +4450,16 @@
         <v>0.02226487296325552</v>
       </c>
       <c r="I118">
-        <v>0.2322997875349606</v>
+        <v>0.05704629244559356</v>
       </c>
       <c r="J118">
         <v>0.2322997875349606</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.2322997875349606</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>27.59000015258789</v>
       </c>
       <c r="F119">
-        <v>18.51935005187988</v>
+        <v>18.51935386657715</v>
       </c>
       <c r="G119">
         <v>98900</v>
@@ -4134,13 +4485,16 @@
         <v>0.03604960653681277</v>
       </c>
       <c r="I119">
-        <v>0.1985230062531538</v>
+        <v>0.05685365619547115</v>
       </c>
       <c r="J119">
         <v>0.1985230062531538</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.1985230062531538</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4166,13 +4520,16 @@
         <v>0.1090975067863311</v>
       </c>
       <c r="I120">
-        <v>0.3697403837271231</v>
+        <v>0.05734734117747511</v>
       </c>
       <c r="J120">
         <v>0.3697403837271231</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.3697403837271231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>30.04000091552734</v>
       </c>
       <c r="F121">
-        <v>20.16387939453125</v>
+        <v>20.16387748718262</v>
       </c>
       <c r="G121">
         <v>99800</v>
@@ -4198,13 +4555,16 @@
         <v>-0.01830063591376618</v>
       </c>
       <c r="I121">
-        <v>0.2331691364064299</v>
+        <v>0.057164314054966</v>
       </c>
       <c r="J121">
         <v>0.2331691364064299</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.2331691364064299</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>31.11000061035156</v>
       </c>
       <c r="F122">
-        <v>20.88209915161133</v>
+        <v>20.8820972442627</v>
       </c>
       <c r="G122">
         <v>94600</v>
@@ -4230,13 +4590,16 @@
         <v>0.03561916318954395</v>
       </c>
       <c r="I122">
-        <v>0.3632778714457034</v>
+        <v>0.05697112922138387</v>
       </c>
       <c r="J122">
         <v>0.3632778714457034</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.3632778714457034</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4262,13 +4625,16 @@
         <v>0.05818056969087593</v>
       </c>
       <c r="I123">
-        <v>0.497044043273829</v>
+        <v>0.05711820294449912</v>
       </c>
       <c r="J123">
         <v>0.497044043273829</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.497044043273829</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>30.72999954223633</v>
       </c>
       <c r="F124">
-        <v>20.62703132629395</v>
+        <v>20.62702941894531</v>
       </c>
       <c r="G124">
         <v>101300</v>
@@ -4294,13 +4660,16 @@
         <v>-0.06652487085418168</v>
       </c>
       <c r="I124">
-        <v>0.3585322016848245</v>
+        <v>0.05742866164834079</v>
       </c>
       <c r="J124">
         <v>0.3585322016848245</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.3585322016848245</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>30.88999938964844</v>
       </c>
       <c r="F125">
-        <v>20.73442268371582</v>
+        <v>20.73442840576172</v>
       </c>
       <c r="G125">
         <v>336400</v>
@@ -4326,13 +4695,16 @@
         <v>0.005206633576164021</v>
       </c>
       <c r="I125">
-        <v>0.2876198284435694</v>
+        <v>0.05712531386510625</v>
       </c>
       <c r="J125">
         <v>0.2876198284435694</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2876198284435694</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>30.95999908447266</v>
       </c>
       <c r="F126">
-        <v>20.78140640258789</v>
+        <v>20.78141021728516</v>
       </c>
       <c r="G126">
         <v>89200</v>
@@ -4358,13 +4730,16 @@
         <v>0.002266095701111581</v>
       </c>
       <c r="I126">
-        <v>0.2478839077353714</v>
+        <v>0.05711096709261546</v>
       </c>
       <c r="J126">
         <v>0.2478839077353714</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.2478839077353714</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>31.13999938964844</v>
       </c>
       <c r="F127">
-        <v>20.9022388458252</v>
+        <v>20.90223693847656</v>
       </c>
       <c r="G127">
         <v>72000</v>
@@ -4390,13 +4765,16 @@
         <v>0.005813963517397491</v>
       </c>
       <c r="I127">
-        <v>0.1576208115704734</v>
+        <v>0.0569614181266351</v>
       </c>
       <c r="J127">
         <v>0.1576208115704734</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.1576208115704734</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>31.6200008392334</v>
       </c>
       <c r="F128">
-        <v>21.22442626953125</v>
+        <v>21.22442817687988</v>
       </c>
       <c r="G128">
         <v>69300</v>
@@ -4422,13 +4800,16 @@
         <v>0.01541430504152563</v>
       </c>
       <c r="I128">
-        <v>0.1719792948748311</v>
+        <v>0.05683916527893656</v>
       </c>
       <c r="J128">
         <v>0.1719792948748311</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.1719792948748311</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>33.41999816894531</v>
       </c>
       <c r="F129">
-        <v>22.43264579772949</v>
+        <v>22.43264198303223</v>
       </c>
       <c r="G129">
         <v>46400</v>
@@ -4454,13 +4835,16 @@
         <v>0.05692591024471194</v>
       </c>
       <c r="I129">
-        <v>0.2829174336941895</v>
+        <v>0.05696902283291008</v>
       </c>
       <c r="J129">
         <v>0.2829174336941895</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2829174336941895</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>35.08000183105469</v>
       </c>
       <c r="F130">
-        <v>23.54689598083496</v>
+        <v>23.54689788818359</v>
       </c>
       <c r="G130">
         <v>81700</v>
@@ -4486,13 +4870,16 @@
         <v>0.04967096807479465</v>
       </c>
       <c r="I130">
-        <v>0.3173114133152994</v>
+        <v>0.05707111547344388</v>
       </c>
       <c r="J130">
         <v>0.3173114133152994</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3173114133152994</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>36.9900016784668</v>
       </c>
       <c r="F131">
-        <v>24.82895469665527</v>
+        <v>24.82896041870117</v>
       </c>
       <c r="G131">
         <v>159400</v>
@@ -4518,13 +4905,16 @@
         <v>0.05444697114357822</v>
       </c>
       <c r="I131">
-        <v>0.3407032067376485</v>
+        <v>0.05719194642975882</v>
       </c>
       <c r="J131">
         <v>0.3407032067376485</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.3407032067376485</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>36.75</v>
       </c>
       <c r="F132">
-        <v>24.66785621643066</v>
+        <v>24.66785430908203</v>
       </c>
       <c r="G132">
         <v>603300</v>
@@ -4550,13 +4940,16 @@
         <v>-0.006488285146699857</v>
       </c>
       <c r="I132">
-        <v>0.200980377185044</v>
+        <v>0.05708777553095908</v>
       </c>
       <c r="J132">
         <v>0.200980377185044</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.200980377185044</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4582,13 +4975,16 @@
         <v>-0.02612242406728316</v>
       </c>
       <c r="I133">
-        <v>0.1914114455645002</v>
+        <v>0.05718520350940556</v>
       </c>
       <c r="J133">
         <v>0.1914114455645002</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.1914114455645002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>38.86000061035156</v>
       </c>
       <c r="F134">
-        <v>26.08416557312012</v>
+        <v>26.08416366577148</v>
       </c>
       <c r="G134">
         <v>127700</v>
@@ -4614,13 +5010,16 @@
         <v>0.08577813960022307</v>
       </c>
       <c r="I134">
-        <v>0.249116034971123</v>
+        <v>0.05757614385952381</v>
       </c>
       <c r="J134">
         <v>0.249116034971123</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.249116034971123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>40.5</v>
       </c>
       <c r="F135">
-        <v>27.18498229980469</v>
+        <v>27.18499374389648</v>
       </c>
       <c r="G135">
         <v>488300</v>
@@ -4646,13 +5045,16 @@
         <v>0.04220276283813473</v>
       </c>
       <c r="I135">
-        <v>0.2302552324624729</v>
+        <v>0.05750209514200944</v>
       </c>
       <c r="J135">
         <v>0.2302552324624729</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.2302552324624729</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4678,13 +5080,16 @@
         <v>0.01654316466531647</v>
       </c>
       <c r="I136">
-        <v>0.339733120150552</v>
+        <v>0.05732759134990934</v>
       </c>
       <c r="J136">
         <v>0.339733120150552</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.339733120150552</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>40.02000045776367</v>
       </c>
       <c r="F137">
-        <v>26.86279296875</v>
+        <v>26.86280059814453</v>
       </c>
       <c r="G137">
         <v>133200</v>
@@ -4710,13 +5115,16 @@
         <v>-0.02793290654185865</v>
       </c>
       <c r="I137">
-        <v>0.2955649481551881</v>
+        <v>0.05740541541930656</v>
       </c>
       <c r="J137">
         <v>0.2955649481551881</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.2955649481551881</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4742,13 +5150,16 @@
         <v>-0.05247381971008869</v>
       </c>
       <c r="I138">
-        <v>0.2248061786269011</v>
+        <v>0.05740682034720859</v>
       </c>
       <c r="J138">
         <v>0.2248061786269011</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.2248061786269011</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>37.2400016784668</v>
       </c>
       <c r="F139">
-        <v>24.99676322937012</v>
+        <v>24.99675941467285</v>
       </c>
       <c r="G139">
         <v>76200</v>
@@ -4774,13 +5185,16 @@
         <v>-0.01793239776671196</v>
       </c>
       <c r="I139">
-        <v>0.1958896084900414</v>
+        <v>0.05681661743092611</v>
       </c>
       <c r="J139">
         <v>0.1958896084900414</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.1958896084900414</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4797,7 +5211,7 @@
         <v>37.59999847412109</v>
       </c>
       <c r="F140">
-        <v>25.23840713500977</v>
+        <v>25.23841094970703</v>
       </c>
       <c r="G140">
         <v>57000</v>
@@ -4806,13 +5220,16 @@
         <v>0.009666938223111154</v>
       </c>
       <c r="I140">
-        <v>0.1891207297966877</v>
+        <v>0.05649562856589935</v>
       </c>
       <c r="J140">
         <v>0.1891207297966877</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.1891207297966877</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>40.7599983215332</v>
       </c>
       <c r="F141">
-        <v>27.35950469970703</v>
+        <v>27.35951042175293</v>
       </c>
       <c r="G141">
         <v>74800</v>
@@ -4838,13 +5255,16 @@
         <v>0.08404255254390613</v>
       </c>
       <c r="I141">
-        <v>0.2196289812908607</v>
+        <v>0.05668430520611985</v>
       </c>
       <c r="J141">
         <v>0.2196289812908607</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.2196289812908607</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>37.86000061035156</v>
       </c>
       <c r="F142">
-        <v>25.41292381286621</v>
+        <v>25.41293144226074</v>
       </c>
       <c r="G142">
         <v>318400</v>
@@ -4870,13 +5290,16 @@
         <v>-0.07114813127088848</v>
       </c>
       <c r="I142">
-        <v>0.07924739550144122</v>
+        <v>0.05663338064597175</v>
       </c>
       <c r="J142">
         <v>0.07924739550144122</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.07924739550144122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4902,13 +5325,16 @@
         <v>-0.02588482637182998</v>
       </c>
       <c r="I143">
-        <v>-0.0029737930619127</v>
+        <v>0.05645058790191908</v>
       </c>
       <c r="J143">
         <v>-0.0029737930619127</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>-0.0029737930619127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>32.72000122070312</v>
       </c>
       <c r="F144">
-        <v>22.40266990661621</v>
+        <v>22.40267372131348</v>
       </c>
       <c r="G144">
         <v>423200</v>
@@ -4934,13 +5360,16 @@
         <v>-0.1127982572378138</v>
       </c>
       <c r="I144">
-        <v>-0.1096598307291666</v>
+        <v>0.05757658630024787</v>
       </c>
       <c r="J144">
         <v>-0.1096598307291666</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.1096598307291666</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4966,13 +5395,16 @@
         <v>0.0119192963049668</v>
       </c>
       <c r="I145">
-        <v>-0.07488125835764015</v>
+        <v>0.05751496519882169</v>
       </c>
       <c r="J145">
         <v>-0.07488125835764015</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>-0.07488125835764015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>33.61999893188477</v>
       </c>
       <c r="F146">
-        <v>23.01888084411621</v>
+        <v>23.01888275146484</v>
       </c>
       <c r="G146">
         <v>51200</v>
@@ -4998,13 +5430,16 @@
         <v>0.01540315047211926</v>
       </c>
       <c r="I146">
-        <v>-0.1348430673228286</v>
+        <v>0.05729376961152462</v>
       </c>
       <c r="J146">
         <v>-0.1348430673228286</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.1348430673228286</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5021,7 +5456,7 @@
         <v>37.16999816894531</v>
       </c>
       <c r="F147">
-        <v>25.44948387145996</v>
+        <v>25.44949340820312</v>
       </c>
       <c r="G147">
         <v>81100</v>
@@ -5030,13 +5465,16 @@
         <v>0.1055918902392878</v>
       </c>
       <c r="I147">
-        <v>-0.08222226743344907</v>
+        <v>0.05776493267014047</v>
       </c>
       <c r="J147">
         <v>-0.08222226743344907</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.08222226743344907</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5062,13 +5500,16 @@
         <v>0.04358361114839937</v>
       </c>
       <c r="I148">
-        <v>-0.05780902014256606</v>
+        <v>0.05764530615479241</v>
       </c>
       <c r="J148">
         <v>-0.05780902014256606</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.05780902014256606</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>34.83000183105469</v>
       </c>
       <c r="F149">
-        <v>24.09875679016113</v>
+        <v>24.0987548828125</v>
       </c>
       <c r="G149">
         <v>464000</v>
@@ -5094,13 +5535,16 @@
         <v>-0.1020881410417162</v>
       </c>
       <c r="I149">
-        <v>-0.1296851216227848</v>
+        <v>0.05794661992103382</v>
       </c>
       <c r="J149">
         <v>-0.1296851216227848</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.1296851216227848</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5117,7 +5561,7 @@
         <v>31.61000061035156</v>
       </c>
       <c r="F150">
-        <v>21.870849609375</v>
+        <v>21.87084770202637</v>
       </c>
       <c r="G150">
         <v>76400</v>
@@ -5126,13 +5570,16 @@
         <v>-0.09244906837277711</v>
       </c>
       <c r="I150">
-        <v>-0.1664028972385695</v>
+        <v>0.0586994136418349</v>
       </c>
       <c r="J150">
         <v>-0.1664028972385695</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.1664028972385695</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>29.54999923706055</v>
       </c>
       <c r="F151">
-        <v>20.44553756713867</v>
+        <v>20.4455394744873</v>
       </c>
       <c r="G151">
         <v>187100</v>
@@ -5158,13 +5605,16 @@
         <v>-0.06516929242375313</v>
       </c>
       <c r="I151">
-        <v>-0.2064984450807054</v>
+        <v>0.05427671986084454</v>
       </c>
       <c r="J151">
         <v>-0.2064984450807054</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.2064984450807054</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5190,13 +5640,16 @@
         <v>-0.2602368468783059</v>
       </c>
       <c r="I152">
-        <v>-0.4186169814502222</v>
+        <v>0.05926687791994458</v>
       </c>
       <c r="J152">
         <v>-0.4186169814502222</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.4186169814502222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>14.02999973297119</v>
       </c>
       <c r="F153">
-        <v>9.707306861877441</v>
+        <v>9.707305908203125</v>
       </c>
       <c r="G153">
         <v>95000</v>
@@ -5222,13 +5675,16 @@
         <v>-0.3581885022305333</v>
       </c>
       <c r="I153">
-        <v>-0.6557899825633887</v>
+        <v>0.06731636838423799</v>
       </c>
       <c r="J153">
         <v>-0.6557899825633887</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.6557899825633887</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>12.22999954223633</v>
       </c>
       <c r="F154">
-        <v>8.461894035339355</v>
+        <v>8.461891174316406</v>
       </c>
       <c r="G154">
         <v>50900</v>
@@ -5254,13 +5710,16 @@
         <v>-0.1282965235205795</v>
       </c>
       <c r="I154">
-        <v>-0.6769677933155542</v>
+        <v>0.06818778778557852</v>
       </c>
       <c r="J154">
         <v>-0.6769677933155542</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.6769677933155542</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5286,13 +5745,16 @@
         <v>0.06459533484028968</v>
       </c>
       <c r="I155">
-        <v>-0.6469631214566268</v>
+        <v>0.0683593355367214</v>
       </c>
       <c r="J155">
         <v>-0.6469631214566268</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.6469631214566268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>11.97999954223633</v>
       </c>
       <c r="F156">
-        <v>8.569671630859375</v>
+        <v>8.569672584533691</v>
       </c>
       <c r="G156">
         <v>36800</v>
@@ -5318,13 +5780,16 @@
         <v>-0.07987717964381513</v>
       </c>
       <c r="I156">
-        <v>-0.6338631083346002</v>
+        <v>0.06864936877761102</v>
       </c>
       <c r="J156">
         <v>-0.6338631083346002</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.6338631083346002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5341,7 +5806,7 @@
         <v>10.17000007629395</v>
       </c>
       <c r="F157">
-        <v>7.274924278259277</v>
+        <v>7.274923324584961</v>
       </c>
       <c r="G157">
         <v>63100</v>
@@ -5350,13 +5815,16 @@
         <v>-0.1510851030971331</v>
       </c>
       <c r="I157">
-        <v>-0.6928420450371607</v>
+        <v>0.07008866891286707</v>
       </c>
       <c r="J157">
         <v>-0.6928420450371607</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.6928420450371607</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5373,7 +5841,7 @@
         <v>12.28999996185303</v>
       </c>
       <c r="F158">
-        <v>8.79142951965332</v>
+        <v>8.791423797607422</v>
       </c>
       <c r="G158">
         <v>71600</v>
@@ -5382,13 +5850,16 @@
         <v>0.2084562310378697</v>
       </c>
       <c r="I158">
-        <v>-0.6344437729830695</v>
+        <v>0.07251534783061998</v>
       </c>
       <c r="J158">
         <v>-0.6344437729830695</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.6344437729830695</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5405,7 +5876,7 @@
         <v>13.77000045776367</v>
       </c>
       <c r="F159">
-        <v>9.850116729736328</v>
+        <v>9.850117683410645</v>
       </c>
       <c r="G159">
         <v>50100</v>
@@ -5414,13 +5885,16 @@
         <v>0.1204231489425893</v>
       </c>
       <c r="I159">
-        <v>-0.6295399210089767</v>
+        <v>0.07318022624706889</v>
       </c>
       <c r="J159">
         <v>-0.6295399210089767</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.6295399210089767</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>16.77000045776367</v>
       </c>
       <c r="F160">
-        <v>11.9961109161377</v>
+        <v>11.99611186981201</v>
       </c>
       <c r="G160">
         <v>80700</v>
@@ -5446,13 +5920,16 @@
         <v>0.2178649165046735</v>
       </c>
       <c r="I160">
-        <v>-0.5676720788358949</v>
+        <v>0.07546457205088072</v>
       </c>
       <c r="J160">
         <v>-0.5676720788358949</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.5676720788358949</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>16.14999961853027</v>
       </c>
       <c r="F161">
-        <v>11.78695201873779</v>
+        <v>11.78695392608643</v>
       </c>
       <c r="G161">
         <v>28000</v>
@@ -5478,13 +5955,16 @@
         <v>-0.03697083019138314</v>
       </c>
       <c r="I161">
-        <v>-0.5363193003300157</v>
+        <v>0.07555505956195464</v>
       </c>
       <c r="J161">
         <v>-0.5363193003300157</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.5363193003300157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>17.51000022888184</v>
       </c>
       <c r="F162">
-        <v>12.7795352935791</v>
+        <v>12.77954292297363</v>
       </c>
       <c r="G162">
         <v>60500</v>
@@ -5510,13 +5990,16 @@
         <v>0.08421056609754451</v>
       </c>
       <c r="I162">
-        <v>-0.4460613764383254</v>
+        <v>0.07581302210381022</v>
       </c>
       <c r="J162">
         <v>-0.4460613764383254</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.4460613764383254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>20.32999992370605</v>
       </c>
       <c r="F163">
-        <v>14.8376932144165</v>
+        <v>14.83769416809082</v>
       </c>
       <c r="G163">
         <v>325000</v>
@@ -5542,13 +6025,16 @@
         <v>0.1610508085643982</v>
       </c>
       <c r="I163">
-        <v>-0.3120135211980344</v>
+        <v>0.07705387232911992</v>
       </c>
       <c r="J163">
         <v>-0.3120135211980344</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.3120135211980344</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5574,13 +6060,16 @@
         <v>0.07919334069815709</v>
       </c>
       <c r="I164">
-        <v>0.003659648740731214</v>
+        <v>0.07708015516038909</v>
       </c>
       <c r="J164">
         <v>0.003659648740731214</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0.003659648740731214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5597,7 +6086,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F165">
-        <v>14.99096012115479</v>
+        <v>14.9909610748291</v>
       </c>
       <c r="G165">
         <v>230900</v>
@@ -5606,13 +6095,16 @@
         <v>-0.06381037303791515</v>
       </c>
       <c r="I165">
-        <v>0.4640057951859635</v>
+        <v>0.07734801090998512</v>
       </c>
       <c r="J165">
         <v>0.4640057951859635</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.4640057951859635</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>21.23999977111816</v>
       </c>
       <c r="F166">
-        <v>15.50185012817383</v>
+        <v>15.50184726715088</v>
       </c>
       <c r="G166">
         <v>106400</v>
@@ -5638,13 +6130,16 @@
         <v>0.0340797869712679</v>
       </c>
       <c r="I166">
-        <v>0.7367130471073022</v>
+        <v>0.07721287579181109</v>
       </c>
       <c r="J166">
         <v>0.7367130471073022</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.7367130471073022</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5661,7 +6156,7 @@
         <v>19.55999946594238</v>
       </c>
       <c r="F167">
-        <v>14.7066707611084</v>
+        <v>14.70666980743408</v>
       </c>
       <c r="G167">
         <v>113500</v>
@@ -5670,13 +6165,16 @@
         <v>-0.07909606041805239</v>
       </c>
       <c r="I167">
-        <v>0.5023040536284302</v>
+        <v>0.07764294238064168</v>
       </c>
       <c r="J167">
         <v>0.5023040536284302</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.5023040536284302</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5693,7 +6191,7 @@
         <v>18.79999923706055</v>
       </c>
       <c r="F168">
-        <v>14.13524723052979</v>
+        <v>14.13524627685547</v>
       </c>
       <c r="G168">
         <v>131600</v>
@@ -5702,13 +6200,16 @@
         <v>-0.03885481848837158</v>
       </c>
       <c r="I168">
-        <v>0.5692821331736977</v>
+        <v>0.07771520713124332</v>
       </c>
       <c r="J168">
         <v>0.5692821331736977</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.5692821331736977</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>18.3700008392334</v>
       </c>
       <c r="F169">
-        <v>13.81193923950195</v>
+        <v>13.8119421005249</v>
       </c>
       <c r="G169">
         <v>36600</v>
@@ -5734,13 +6235,16 @@
         <v>-0.02287225613177102</v>
       </c>
       <c r="I169">
-        <v>0.8062930876523278</v>
+        <v>0.07760228777913201</v>
       </c>
       <c r="J169">
         <v>0.8062930876523278</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.8062930876523278</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>19.75</v>
       </c>
       <c r="F170">
-        <v>14.84952831268311</v>
+        <v>14.84952735900879</v>
       </c>
       <c r="G170">
         <v>119800</v>
@@ -5766,13 +6270,16 @@
         <v>0.07512243319114575</v>
       </c>
       <c r="I170">
-        <v>0.6069975639790148</v>
+        <v>0.0778203368706739</v>
       </c>
       <c r="J170">
         <v>0.6069975639790148</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.6069975639790148</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5789,7 +6296,7 @@
         <v>19.76000022888184</v>
       </c>
       <c r="F171">
-        <v>14.85704708099365</v>
+        <v>14.85704517364502</v>
       </c>
       <c r="G171">
         <v>64700</v>
@@ -5798,13 +6305,16 @@
         <v>0.0005063407028778055</v>
       </c>
       <c r="I171">
-        <v>0.4350035999992243</v>
+        <v>0.07775902405468105</v>
       </c>
       <c r="J171">
         <v>0.4350035999992243</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.4350035999992243</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="F172">
-        <v>12.49616146087646</v>
+        <v>12.49616050720215</v>
       </c>
       <c r="G172">
         <v>73600</v>
@@ -5830,13 +6340,16 @@
         <v>-0.158906849862224</v>
       </c>
       <c r="I172">
-        <v>-0.008944520836958625</v>
+        <v>0.07921069802826831</v>
       </c>
       <c r="J172">
         <v>-0.008944520836958625</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>-0.008944520836958625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5862,13 +6375,16 @@
         <v>-0.08122745567394296</v>
       </c>
       <c r="I173">
-        <v>-0.05448911340882656</v>
+        <v>0.07963847702050206</v>
       </c>
       <c r="J173">
         <v>-0.05448911340882656</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>-0.05448911340882656</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>18.19000053405762</v>
       </c>
       <c r="F174">
-        <v>13.81408309936523</v>
+        <v>13.8140811920166</v>
       </c>
       <c r="G174">
         <v>67800</v>
@@ -5894,13 +6410,16 @@
         <v>0.1912246227084649</v>
       </c>
       <c r="I174">
-        <v>0.03883496837733658</v>
+        <v>0.08136034695519311</v>
       </c>
       <c r="J174">
         <v>0.03883496837733658</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.03883496837733658</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5917,7 +6436,7 @@
         <v>17.14999961853027</v>
       </c>
       <c r="F175">
-        <v>13.02427005767822</v>
+        <v>13.02427196502686</v>
       </c>
       <c r="G175">
         <v>425100</v>
@@ -5926,13 +6445,16 @@
         <v>-0.05717432023050917</v>
       </c>
       <c r="I175">
-        <v>-0.1564191006940291</v>
+        <v>0.0815060278140485</v>
       </c>
       <c r="J175">
         <v>-0.1564191006940291</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.1564191006940291</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5949,7 +6471,7 @@
         <v>19.70999908447266</v>
       </c>
       <c r="F176">
-        <v>14.96841716766357</v>
+        <v>14.96842098236084</v>
       </c>
       <c r="G176">
         <v>84600</v>
@@ -5958,13 +6480,16 @@
         <v>0.1492711092061103</v>
       </c>
       <c r="I176">
-        <v>-0.1016409022471678</v>
+        <v>0.08247056271705398</v>
       </c>
       <c r="J176">
         <v>-0.1016409022471678</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>-0.1016409022471678</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5981,7 +6506,7 @@
         <v>21.06999969482422</v>
       </c>
       <c r="F177">
-        <v>16.00124931335449</v>
+        <v>16.00124740600586</v>
       </c>
       <c r="G177">
         <v>60400</v>
@@ -5990,13 +6515,16 @@
         <v>0.06900054152833301</v>
       </c>
       <c r="I177">
-        <v>0.02580325003277961</v>
+        <v>0.08233352257906408</v>
       </c>
       <c r="J177">
         <v>0.02580325003277961</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.02580325003277961</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>19.17000007629395</v>
       </c>
       <c r="F178">
-        <v>14.55832862854004</v>
+        <v>14.55832195281982</v>
       </c>
       <c r="G178">
         <v>226200</v>
@@ -6022,13 +6550,16 @@
         <v>-0.09017558832699002</v>
       </c>
       <c r="I178">
-        <v>-0.09745761380087081</v>
+        <v>0.08279292391870377</v>
       </c>
       <c r="J178">
         <v>-0.09745761380087081</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>-0.09745761380087081</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6054,13 +6585,16 @@
         <v>0.1648408886194965</v>
       </c>
       <c r="I179">
-        <v>0.1416155691919501</v>
+        <v>0.08373270184583256</v>
       </c>
       <c r="J179">
         <v>0.1416155691919501</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.1416155691919501</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6077,7 +6611,7 @@
         <v>22.54999923706055</v>
       </c>
       <c r="F180">
-        <v>17.19123458862305</v>
+        <v>17.19123649597168</v>
       </c>
       <c r="G180">
         <v>158100</v>
@@ -6086,13 +6620,16 @@
         <v>0.009852186032519139</v>
       </c>
       <c r="I180">
-        <v>0.1994680932011743</v>
+        <v>0.08368573663427267</v>
       </c>
       <c r="J180">
         <v>0.1994680932011743</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.1994680932011743</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6109,7 +6646,7 @@
         <v>22.70999908447266</v>
       </c>
       <c r="F181">
-        <v>17.31321334838867</v>
+        <v>17.31321144104004</v>
       </c>
       <c r="G181">
         <v>70500</v>
@@ -6118,13 +6655,16 @@
         <v>0.007095337154120696</v>
       </c>
       <c r="I181">
-        <v>0.2362546568844017</v>
+        <v>0.08342984293614431</v>
       </c>
       <c r="J181">
         <v>0.2362546568844017</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.2362546568844017</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>23.39999961853027</v>
       </c>
       <c r="F182">
-        <v>17.8392448425293</v>
+        <v>17.83924293518066</v>
       </c>
       <c r="G182">
         <v>70200</v>
@@ -6150,13 +6690,16 @@
         <v>0.03038311589054121</v>
       </c>
       <c r="I182">
-        <v>0.1848101072673556</v>
+        <v>0.08310375160745</v>
       </c>
       <c r="J182">
         <v>0.1848101072673556</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.1848101072673556</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>23.92000007629395</v>
       </c>
       <c r="F183">
-        <v>18.23567199707031</v>
+        <v>18.23567008972168</v>
       </c>
       <c r="G183">
         <v>68000</v>
@@ -6182,13 +6725,16 @@
         <v>0.02222224214704216</v>
       </c>
       <c r="I183">
-        <v>0.2105263056288695</v>
+        <v>0.08309879887676598</v>
       </c>
       <c r="J183">
         <v>0.2105263056288695</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2105263056288695</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6214,13 +6760,16 @@
         <v>-0.0267558272411007</v>
       </c>
       <c r="I184">
-        <v>0.400721992245056</v>
+        <v>0.08302806051258256</v>
       </c>
       <c r="J184">
         <v>0.400721992245056</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.400721992245056</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6237,7 +6786,7 @@
         <v>22.76000022888184</v>
       </c>
       <c r="F185">
-        <v>17.6479320526123</v>
+        <v>17.64792633056641</v>
       </c>
       <c r="G185">
         <v>41900</v>
@@ -6246,13 +6795,16 @@
         <v>-0.02233678876401268</v>
       </c>
       <c r="I185">
-        <v>0.4905042270191977</v>
+        <v>0.08308601484913919</v>
       </c>
       <c r="J185">
         <v>0.4905042270191977</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.4905042270191977</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6269,7 +6821,7 @@
         <v>21.11000061035156</v>
       </c>
       <c r="F186">
-        <v>16.3685302734375</v>
+        <v>16.36853218078613</v>
       </c>
       <c r="G186">
         <v>274700</v>
@@ -6278,13 +6830,16 @@
         <v>-0.07249558883731766</v>
       </c>
       <c r="I186">
-        <v>0.1605277619880634</v>
+        <v>0.08340139957361631</v>
       </c>
       <c r="J186">
         <v>0.1605277619880634</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.1605277619880634</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>18.67000007629395</v>
       </c>
       <c r="F187">
-        <v>14.4765739440918</v>
+        <v>14.47657489776611</v>
       </c>
       <c r="G187">
         <v>65900</v>
@@ -6310,13 +6865,16 @@
         <v>-0.1155850527479915</v>
       </c>
       <c r="I187">
-        <v>0.08862976627249242</v>
+        <v>0.08420516833599001</v>
       </c>
       <c r="J187">
         <v>0.08862976627249242</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.08862976627249242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>15.01000022888184</v>
       </c>
       <c r="F188">
-        <v>11.63863849639893</v>
+        <v>11.63863754272461</v>
       </c>
       <c r="G188">
         <v>80000</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1960364130935039</v>
       </c>
       <c r="I188">
-        <v>-0.2384575887318754</v>
+        <v>0.08537669356039995</v>
       </c>
       <c r="J188">
         <v>-0.2384575887318754</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.2384575887318754</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>15.97999954223633</v>
       </c>
       <c r="F189">
-        <v>12.39076900482178</v>
+        <v>12.39076805114746</v>
       </c>
       <c r="G189">
         <v>106200</v>
@@ -6374,13 +6935,16 @@
         <v>0.06462353754585859</v>
       </c>
       <c r="I189">
-        <v>-0.2415757107883696</v>
+        <v>0.08525859519529705</v>
       </c>
       <c r="J189">
         <v>-0.2415757107883696</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.2415757107883696</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6397,7 +6961,7 @@
         <v>14.73999977111816</v>
       </c>
       <c r="F190">
-        <v>11.42928218841553</v>
+        <v>11.42928314208984</v>
       </c>
       <c r="G190">
         <v>92800</v>
@@ -6406,13 +6970,16 @@
         <v>-0.07759698414513416</v>
       </c>
       <c r="I190">
-        <v>-0.2310902601744911</v>
+        <v>0.08531185610653524</v>
       </c>
       <c r="J190">
         <v>-0.2310902601744911</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.2310902601744911</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6429,7 +6996,7 @@
         <v>14.22000026702881</v>
       </c>
       <c r="F191">
-        <v>11.20128059387207</v>
+        <v>11.20127964019775</v>
       </c>
       <c r="G191">
         <v>62400</v>
@@ -6438,13 +7005,16 @@
         <v>-0.03527812158506627</v>
       </c>
       <c r="I191">
-        <v>-0.3631885214682639</v>
+        <v>0.08538739268273435</v>
       </c>
       <c r="J191">
         <v>-0.3631885214682639</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.3631885214682639</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>15.71000003814697</v>
       </c>
       <c r="F192">
-        <v>12.37497138977051</v>
+        <v>12.37497234344482</v>
       </c>
       <c r="G192">
         <v>1108700</v>
@@ -6470,13 +7040,16 @@
         <v>0.1047819791236537</v>
       </c>
       <c r="I192">
-        <v>-0.3033259170879328</v>
+        <v>0.08582942647190198</v>
       </c>
       <c r="J192">
         <v>-0.3033259170879328</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.3033259170879328</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6502,13 +7075,16 @@
         <v>0.06174412887800496</v>
       </c>
       <c r="I193">
-        <v>-0.2655217535178027</v>
+        <v>0.08588656204044207</v>
       </c>
       <c r="J193">
         <v>-0.2655217535178027</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.2655217535178027</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6525,7 +7101,7 @@
         <v>16.42000007629395</v>
       </c>
       <c r="F194">
-        <v>12.93424892425537</v>
+        <v>12.93424797058105</v>
       </c>
       <c r="G194">
         <v>33100</v>
@@ -6534,13 +7110,16 @@
         <v>-0.01558754341276347</v>
       </c>
       <c r="I194">
-        <v>-0.2982905835908186</v>
+        <v>0.08575067423450111</v>
       </c>
       <c r="J194">
         <v>-0.2982905835908186</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.2982905835908186</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>16.11000061035156</v>
       </c>
       <c r="F195">
-        <v>12.69005870819092</v>
+        <v>12.69005680084229</v>
       </c>
       <c r="G195">
         <v>67000</v>
@@ -6566,13 +7145,16 @@
         <v>-0.018879382734592</v>
       </c>
       <c r="I195">
-        <v>-0.3265049933541818</v>
+        <v>0.08554453741083036</v>
       </c>
       <c r="J195">
         <v>-0.3265049933541818</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.3265049933541818</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6598,13 +7180,16 @@
         <v>-0.1384233650790644</v>
       </c>
       <c r="I196">
-        <v>-0.4037800813982307</v>
+        <v>0.0865825836572069</v>
       </c>
       <c r="J196">
         <v>-0.4037800813982307</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.4037800813982307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>14.39000034332275</v>
       </c>
       <c r="F197">
-        <v>11.55797672271729</v>
+        <v>11.55797576904297</v>
       </c>
       <c r="G197">
         <v>22300</v>
@@ -6630,13 +7215,16 @@
         <v>0.03674353203723868</v>
       </c>
       <c r="I197">
-        <v>-0.3677504306409354</v>
+        <v>0.08662248276299497</v>
       </c>
       <c r="J197">
         <v>-0.3677504306409354</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.3677504306409354</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="F198">
-        <v>11.29292297363281</v>
+        <v>11.2929220199585</v>
       </c>
       <c r="G198">
         <v>37900</v>
@@ -6662,13 +7250,16 @@
         <v>-0.02293258622882388</v>
       </c>
       <c r="I198">
-        <v>-0.3339649449028346</v>
+        <v>0.08606013708876296</v>
       </c>
       <c r="J198">
         <v>-0.3339649449028346</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.3339649449028346</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6694,13 +7285,16 @@
         <v>0.02916072796413816</v>
       </c>
       <c r="I199">
-        <v>-0.2249598174666344</v>
+        <v>0.08603880458316372</v>
       </c>
       <c r="J199">
         <v>-0.2249598174666344</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.2249598174666344</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>15.32999992370605</v>
       </c>
       <c r="F200">
-        <v>12.3129825592041</v>
+        <v>12.31297969818115</v>
       </c>
       <c r="G200">
         <v>37300</v>
@@ -6726,13 +7320,16 @@
         <v>0.05943328547386639</v>
       </c>
       <c r="I200">
-        <v>0.02131909992969105</v>
+        <v>0.08592849003076319</v>
       </c>
       <c r="J200">
         <v>0.02131909992969105</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.02131909992969105</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>16.21999931335449</v>
       </c>
       <c r="F201">
-        <v>13.02782440185547</v>
+        <v>13.02782344818115</v>
       </c>
       <c r="G201">
         <v>40800</v>
@@ -6758,13 +7355,16 @@
         <v>0.05805605962672944</v>
       </c>
       <c r="I201">
-        <v>0.01501875957404297</v>
+        <v>0.08601840125325877</v>
       </c>
       <c r="J201">
         <v>0.01501875957404297</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.01501875957404297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6790,13 +7390,16 @@
         <v>0.04685574975678941</v>
       </c>
       <c r="I202">
-        <v>0.1519674223813261</v>
+        <v>0.0860828581469562</v>
       </c>
       <c r="J202">
         <v>0.1519674223813261</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.1519674223813261</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>18.19000053405762</v>
       </c>
       <c r="F203">
-        <v>14.66799640655518</v>
+        <v>14.66799736022949</v>
       </c>
       <c r="G203">
         <v>116100</v>
@@ -6822,13 +7425,16 @@
         <v>0.07126036657489387</v>
       </c>
       <c r="I203">
-        <v>0.2791842610744422</v>
+        <v>0.08596555125429038</v>
       </c>
       <c r="J203">
         <v>0.2791842610744422</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.2791842610744422</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6845,7 +7451,7 @@
         <v>18.69000053405762</v>
       </c>
       <c r="F204">
-        <v>15.07118511199951</v>
+        <v>15.07118606567383</v>
       </c>
       <c r="G204">
         <v>136200</v>
@@ -6854,13 +7460,16 @@
         <v>0.02748762975920949</v>
       </c>
       <c r="I204">
-        <v>0.1896881278596192</v>
+        <v>0.08594451134795063</v>
       </c>
       <c r="J204">
         <v>0.1896881278596192</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.1896881278596192</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>17.95999908447266</v>
       </c>
       <c r="F205">
-        <v>14.4825325012207</v>
+        <v>14.48252964019775</v>
       </c>
       <c r="G205">
         <v>110000</v>
@@ -6886,13 +7495,16 @@
         <v>-0.03905839640050968</v>
       </c>
       <c r="I205">
-        <v>0.07673853452506796</v>
+        <v>0.086032520579746</v>
       </c>
       <c r="J205">
         <v>0.07673853452506796</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.07673853452506796</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F206">
-        <v>13.86968517303467</v>
+        <v>13.86968326568604</v>
       </c>
       <c r="G206">
         <v>357600</v>
@@ -6918,13 +7530,16 @@
         <v>-0.04231616705316321</v>
       </c>
       <c r="I206">
-        <v>0.04750308666390435</v>
+        <v>0.0861635228873346</v>
       </c>
       <c r="J206">
         <v>0.04750308666390435</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.04750308666390435</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>17.97999954223633</v>
       </c>
       <c r="F207">
-        <v>14.49865627288818</v>
+        <v>14.4986572265625</v>
       </c>
       <c r="G207">
         <v>43200</v>
@@ -6950,13 +7565,16 @@
         <v>0.04534876422665768</v>
       </c>
       <c r="I207">
-        <v>0.1160769001264461</v>
+        <v>0.08565325598379692</v>
       </c>
       <c r="J207">
         <v>0.1160769001264461</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.1160769001264461</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>17.81999969482422</v>
       </c>
       <c r="F208">
-        <v>14.36963844299316</v>
+        <v>14.36963748931885</v>
       </c>
       <c r="G208">
         <v>42900</v>
@@ -6982,13 +7600,16 @@
         <v>-0.008898768158267067</v>
       </c>
       <c r="I208">
-        <v>0.2838616388975443</v>
+        <v>0.08540315536898484</v>
       </c>
       <c r="J208">
         <v>0.2838616388975443</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.2838616388975443</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>16.23999977111816</v>
       </c>
       <c r="F209">
-        <v>13.31219673156738</v>
+        <v>13.3121976852417</v>
       </c>
       <c r="G209">
         <v>42600</v>
@@ -7014,13 +7635,16 @@
         <v>-0.0886644192348085</v>
       </c>
       <c r="I209">
-        <v>0.1285614582110728</v>
+        <v>0.08585834789917404</v>
       </c>
       <c r="J209">
         <v>0.1285614582110728</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.1285614582110728</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>17.47999954223633</v>
       </c>
       <c r="F210">
-        <v>14.32864379882812</v>
+        <v>14.32864475250244</v>
       </c>
       <c r="G210">
         <v>45800</v>
@@ -7046,13 +7670,16 @@
         <v>0.07635466678536695</v>
       </c>
       <c r="I210">
-        <v>0.2432431735811331</v>
+        <v>0.08607477676892795</v>
       </c>
       <c r="J210">
         <v>0.2432431735811331</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.2432431735811331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>17.90999984741211</v>
       </c>
       <c r="F211">
-        <v>14.68112564086914</v>
+        <v>14.68112373352051</v>
       </c>
       <c r="G211">
         <v>77800</v>
@@ -7078,13 +7705,16 @@
         <v>0.0245995604368745</v>
       </c>
       <c r="I211">
-        <v>0.2377332078024661</v>
+        <v>0.08597168439755794</v>
       </c>
       <c r="J211">
         <v>0.2377332078024661</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.2377332078024661</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>19.31999969482422</v>
       </c>
       <c r="F212">
-        <v>15.83692455291748</v>
+        <v>15.8369197845459</v>
       </c>
       <c r="G212">
         <v>35800</v>
@@ -7110,13 +7740,16 @@
         <v>0.07872696032523119</v>
       </c>
       <c r="I212">
-        <v>0.2602739589677425</v>
+        <v>0.08612809970157778</v>
       </c>
       <c r="J212">
         <v>0.2602739589677425</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2602739589677425</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>20.01000022888184</v>
       </c>
       <c r="F213">
-        <v>16.40252876281738</v>
+        <v>16.40252494812012</v>
       </c>
       <c r="G213">
         <v>48200</v>
@@ -7142,13 +7775,16 @@
         <v>0.03571431392115731</v>
       </c>
       <c r="I213">
-        <v>0.2336622118354164</v>
+        <v>0.08610223447579882</v>
       </c>
       <c r="J213">
         <v>0.2336622118354164</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.2336622118354164</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>20.25</v>
       </c>
       <c r="F214">
-        <v>16.5992603302002</v>
+        <v>16.59926223754883</v>
       </c>
       <c r="G214">
         <v>31900</v>
@@ -7174,13 +7810,16 @@
         <v>0.01199399142293633</v>
       </c>
       <c r="I214">
-        <v>0.1925795374510948</v>
+        <v>0.08586115228798724</v>
       </c>
       <c r="J214">
         <v>0.1925795374510948</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.1925795374510948</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>19.80999946594238</v>
       </c>
       <c r="F215">
-        <v>16.35140991210938</v>
+        <v>16.35141372680664</v>
       </c>
       <c r="G215">
         <v>94400</v>
@@ -7206,13 +7845,16 @@
         <v>-0.02172842143494402</v>
       </c>
       <c r="I215">
-        <v>0.08905986169992675</v>
+        <v>0.08572393130678378</v>
       </c>
       <c r="J215">
         <v>0.08905986169992675</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.08905986169992675</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>19.5</v>
       </c>
       <c r="F216">
-        <v>16.09553337097168</v>
+        <v>16.09553146362305</v>
       </c>
       <c r="G216">
         <v>671000</v>
@@ -7238,13 +7880,16 @@
         <v>-0.01564863575465203</v>
       </c>
       <c r="I216">
-        <v>0.04333865397522985</v>
+        <v>0.08532388018252202</v>
       </c>
       <c r="J216">
         <v>0.04333865397522985</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.04333865397522985</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>20.3799991607666</v>
       </c>
       <c r="F217">
-        <v>16.8218994140625</v>
+        <v>16.82189559936523</v>
       </c>
       <c r="G217">
         <v>71700</v>
@@ -7270,13 +7915,16 @@
         <v>0.045128162090595</v>
       </c>
       <c r="I217">
-        <v>0.1347438863950812</v>
+        <v>0.0853393024776095</v>
       </c>
       <c r="J217">
         <v>0.1347438863950812</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.1347438863950812</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>19.98999977111816</v>
       </c>
       <c r="F218">
-        <v>16.49998474121094</v>
+        <v>16.4999828338623</v>
       </c>
       <c r="G218">
         <v>47600</v>
@@ -7302,13 +7950,16 @@
         <v>-0.01913637908284227</v>
       </c>
       <c r="I218">
-        <v>0.1622092374664468</v>
+        <v>0.08527290602131528</v>
       </c>
       <c r="J218">
         <v>0.1622092374664468</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.1622092374664468</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7334,13 +7985,16 @@
         <v>0.0140070380115791</v>
       </c>
       <c r="I219">
-        <v>0.1273637916479344</v>
+        <v>0.08527297810846461</v>
       </c>
       <c r="J219">
         <v>0.1273637916479344</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.1273637916479344</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>20.06999969482422</v>
       </c>
       <c r="F220">
-        <v>16.56602096557617</v>
+        <v>16.56601905822754</v>
       </c>
       <c r="G220">
         <v>912300</v>
@@ -7366,13 +8020,16 @@
         <v>-0.009866835639998683</v>
       </c>
       <c r="I220">
-        <v>0.1262626284249324</v>
+        <v>0.08528494362040345</v>
       </c>
       <c r="J220">
         <v>0.1262626284249324</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.1262626284249324</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F221">
-        <v>16.5980052947998</v>
+        <v>16.59800720214844</v>
       </c>
       <c r="G221">
         <v>55300</v>
@@ -7398,13 +8055,16 @@
         <v>-0.02441453804528604</v>
       </c>
       <c r="I221">
-        <v>0.2056650369249311</v>
+        <v>0.08515128553373756</v>
       </c>
       <c r="J221">
         <v>0.2056650369249311</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.2056650369249311</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7421,7 +8081,7 @@
         <v>17.86000061035156</v>
       </c>
       <c r="F222">
-        <v>15.1399564743042</v>
+        <v>15.13995742797852</v>
       </c>
       <c r="G222">
         <v>152200</v>
@@ -7430,13 +8090,16 @@
         <v>-0.08784470480370332</v>
       </c>
       <c r="I222">
-        <v>0.02173919210907593</v>
+        <v>0.08557012517568975</v>
       </c>
       <c r="J222">
         <v>0.02173919210907593</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.02173919210907593</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>17.53000068664551</v>
       </c>
       <c r="F223">
-        <v>14.86021423339844</v>
+        <v>14.86021709442139</v>
       </c>
       <c r="G223">
         <v>142000</v>
@@ -7462,13 +8125,16 @@
         <v>-0.01847703876979645</v>
       </c>
       <c r="I223">
-        <v>-0.02121715041898842</v>
+        <v>0.08559510454901983</v>
       </c>
       <c r="J223">
         <v>-0.02121715041898842</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>-0.02121715041898842</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>16.1200008392334</v>
       </c>
       <c r="F224">
-        <v>13.66495704650879</v>
+        <v>13.66495609283447</v>
       </c>
       <c r="G224">
         <v>43100</v>
@@ -7494,13 +8160,16 @@
         <v>-0.08043353064362735</v>
       </c>
       <c r="I224">
-        <v>-0.1656314133611551</v>
+        <v>0.08588075588629639</v>
       </c>
       <c r="J224">
         <v>-0.1656314133611551</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>-0.1656314133611551</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>16.09000015258789</v>
       </c>
       <c r="F225">
-        <v>13.63952541351318</v>
+        <v>13.63952445983887</v>
       </c>
       <c r="G225">
         <v>250500</v>
@@ -7526,13 +8195,16 @@
         <v>-0.001861084682606928</v>
       </c>
       <c r="I225">
-        <v>-0.1959020505475024</v>
+        <v>0.08571219105105017</v>
       </c>
       <c r="J225">
         <v>-0.1959020505475024</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.1959020505475024</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F226">
-        <v>13.83449649810791</v>
+        <v>13.83449745178223</v>
       </c>
       <c r="G226">
         <v>110400</v>
@@ -7558,13 +8230,16 @@
         <v>0.0142945643290957</v>
       </c>
       <c r="I226">
-        <v>-0.194074089144483</v>
+        <v>0.08478358744925223</v>
       </c>
       <c r="J226">
         <v>-0.194074089144483</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>-0.194074089144483</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7581,7 +8256,7 @@
         <v>15.18000030517578</v>
       </c>
       <c r="F227">
-        <v>12.93109035491943</v>
+        <v>12.93109130859375</v>
       </c>
       <c r="G227">
         <v>33300</v>
@@ -7590,13 +8265,16 @@
         <v>-0.06985290508369191</v>
       </c>
       <c r="I227">
-        <v>-0.2337203071977139</v>
+        <v>0.08482603635419758</v>
       </c>
       <c r="J227">
         <v>-0.2337203071977139</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.2337203071977139</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>14.51000022888184</v>
       </c>
       <c r="F228">
-        <v>12.36035060882568</v>
+        <v>12.3603515625</v>
       </c>
       <c r="G228">
         <v>67600</v>
@@ -7622,13 +8300,16 @@
         <v>-0.0441370265365213</v>
       </c>
       <c r="I228">
-        <v>-0.2558974241599058</v>
+        <v>0.08487964518733622</v>
       </c>
       <c r="J228">
         <v>-0.2558974241599058</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>-0.2558974241599058</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7654,13 +8335,16 @@
         <v>0.1226740633058334</v>
       </c>
       <c r="I229">
-        <v>-0.2006868701502641</v>
+        <v>0.08521817962821343</v>
       </c>
       <c r="J229">
         <v>-0.2006868701502641</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>-0.2006868701502641</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7686,13 +8370,16 @@
         <v>-0.03192145049347517</v>
       </c>
       <c r="I230">
-        <v>-0.2111055208440576</v>
+        <v>0.0850694411340765</v>
       </c>
       <c r="J230">
         <v>-0.2111055208440576</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.2111055208440576</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="F231">
-        <v>14.37071800231934</v>
+        <v>14.3707160949707</v>
       </c>
       <c r="G231">
         <v>28500</v>
@@ -7718,13 +8405,16 @@
         <v>0.0697527171553245</v>
       </c>
       <c r="I231">
-        <v>-0.1677355472001496</v>
+        <v>0.08523214395901475</v>
       </c>
       <c r="J231">
         <v>-0.1677355472001496</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.1677355472001496</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>16.77000045776367</v>
       </c>
       <c r="F232">
-        <v>14.28553104400635</v>
+        <v>14.28553199768066</v>
       </c>
       <c r="G232">
         <v>43100</v>
@@ -7750,13 +8440,16 @@
         <v>-0.005927704593657324</v>
       </c>
       <c r="I232">
-        <v>-0.1644244786865429</v>
+        <v>0.08519836217318441</v>
       </c>
       <c r="J232">
         <v>-0.1644244786865429</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>-0.1644244786865429</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7782,13 +8475,16 @@
         <v>-0.05366729562538175</v>
       </c>
       <c r="I233">
-        <v>-0.189479062952149</v>
+        <v>0.08516888450138294</v>
       </c>
       <c r="J233">
         <v>-0.189479062952149</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>-0.189479062952149</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="F234">
-        <v>14.0979585647583</v>
+        <v>14.09795665740967</v>
       </c>
       <c r="G234">
         <v>32900</v>
@@ -7814,13 +8510,16 @@
         <v>0.03150604645746036</v>
       </c>
       <c r="I234">
-        <v>-0.08342663606934975</v>
+        <v>0.08516030744482436</v>
       </c>
       <c r="J234">
         <v>-0.08342663606934975</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>-0.08342663606934975</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7837,7 +8536,7 @@
         <v>15.55000019073486</v>
       </c>
       <c r="F235">
-        <v>13.39176845550537</v>
+        <v>13.39176654815674</v>
       </c>
       <c r="G235">
         <v>39700</v>
@@ -7846,13 +8545,16 @@
         <v>-0.05009166807940957</v>
       </c>
       <c r="I235">
-        <v>-0.112949253756677</v>
+        <v>0.08493069430589545</v>
       </c>
       <c r="J235">
         <v>-0.112949253756677</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.112949253756677</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>14.97999954223633</v>
       </c>
       <c r="F236">
-        <v>12.90088081359863</v>
+        <v>12.90087985992432</v>
       </c>
       <c r="G236">
         <v>15800</v>
@@ -7878,13 +8580,16 @@
         <v>-0.03665598980752149</v>
       </c>
       <c r="I236">
-        <v>-0.07071967975476134</v>
+        <v>0.08499298481704193</v>
       </c>
       <c r="J236">
         <v>-0.07071967975476134</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>-0.07071967975476134</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7901,7 +8606,7 @@
         <v>15.97999954223633</v>
       </c>
       <c r="F237">
-        <v>13.7620849609375</v>
+        <v>13.76208591461182</v>
       </c>
       <c r="G237">
         <v>43900</v>
@@ -7910,13 +8615,16 @@
         <v>0.06675567627225121</v>
       </c>
       <c r="I237">
-        <v>-0.00683658230630102</v>
+        <v>0.08516131346379194</v>
       </c>
       <c r="J237">
         <v>-0.00683658230630102</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>-0.00683658230630102</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>15.72999954223633</v>
       </c>
       <c r="F238">
-        <v>13.54678440093994</v>
+        <v>13.54678344726562</v>
       </c>
       <c r="G238">
         <v>26300</v>
@@ -7942,13 +8650,16 @@
         <v>-0.01564455614277283</v>
       </c>
       <c r="I238">
-        <v>-0.03615197081008559</v>
+        <v>0.08514732550177291</v>
       </c>
       <c r="J238">
         <v>-0.03615197081008559</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>-0.03615197081008559</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>15.64999961853027</v>
       </c>
       <c r="F239">
-        <v>13.52685451507568</v>
+        <v>13.52685260772705</v>
       </c>
       <c r="G239">
         <v>133900</v>
@@ -7974,13 +8685,16 @@
         <v>-0.005085818565426448</v>
       </c>
       <c r="I239">
-        <v>0.03096174597534374</v>
+        <v>0.08508136925992034</v>
       </c>
       <c r="J239">
         <v>0.03096174597534374</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>0.03096174597534374</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -8006,13 +8720,16 @@
         <v>-0.08753993092350898</v>
       </c>
       <c r="I240">
-        <v>-0.01585117107392142</v>
+        <v>0.08483771155071285</v>
       </c>
       <c r="J240">
         <v>-0.01585117107392142</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>-0.01585117107392142</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8038,13 +8755,16 @@
         <v>-0.009803879010249039</v>
       </c>
       <c r="I241">
-        <v>-0.1319828392492751</v>
+        <v>0.08482801603160477</v>
       </c>
       <c r="J241">
         <v>-0.1319828392492751</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.1319828392492751</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>15.72000026702881</v>
       </c>
       <c r="F242">
-        <v>13.58735847473145</v>
+        <v>13.58735752105713</v>
       </c>
       <c r="G242">
         <v>776300</v>
@@ -8070,13 +8790,16 @@
         <v>0.1117397372944313</v>
       </c>
       <c r="I242">
-        <v>-0.00317058904777956</v>
+        <v>0.08539814125320606</v>
       </c>
       <c r="J242">
         <v>-0.00317058904777956</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>-0.00317058904777956</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>16.23999977111816</v>
       </c>
       <c r="F243">
-        <v>14.03680992126465</v>
+        <v>14.03681182861328</v>
       </c>
       <c r="G243">
         <v>23500</v>
@@ -8102,13 +8825,16 @@
         <v>0.03307884829875007</v>
       </c>
       <c r="I243">
-        <v>-0.03734445979694823</v>
+        <v>0.08528049151257437</v>
       </c>
       <c r="J243">
         <v>-0.03734445979694823</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>-0.03734445979694823</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>15.42000007629395</v>
       </c>
       <c r="F244">
-        <v>13.32805728912354</v>
+        <v>13.32805633544922</v>
       </c>
       <c r="G244">
         <v>69100</v>
@@ -8134,13 +8860,16 @@
         <v>-0.05049259275745421</v>
       </c>
       <c r="I244">
-        <v>-0.08050091500413425</v>
+        <v>0.08519118169864805</v>
       </c>
       <c r="J244">
         <v>-0.08050091500413425</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>-0.08050091500413425</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8166,13 +8895,16 @@
         <v>-0.08106355342511939</v>
       </c>
       <c r="I245">
-        <v>-0.1071203416209254</v>
+        <v>0.08549385045833238</v>
       </c>
       <c r="J245">
         <v>-0.1071203416209254</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>-0.1071203416209254</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>15.15999984741211</v>
       </c>
       <c r="F246">
-        <v>13.34249496459961</v>
+        <v>13.34249591827393</v>
       </c>
       <c r="G246">
         <v>33700</v>
@@ -8198,13 +8930,16 @@
         <v>0.06986589737387572</v>
       </c>
       <c r="I246">
-        <v>-0.07391575624854718</v>
+        <v>0.08574889842955517</v>
       </c>
       <c r="J246">
         <v>-0.07391575624854718</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>-0.07391575624854718</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8230,13 +8965,16 @@
         <v>0.02968336502601976</v>
       </c>
       <c r="I247">
-        <v>0.00385848650845233</v>
+        <v>0.085795069884003</v>
       </c>
       <c r="J247">
         <v>0.00385848650845233</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.00385848650845233</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F248">
-        <v>14.36342334747314</v>
+        <v>14.36342430114746</v>
       </c>
       <c r="G248">
         <v>107900</v>
@@ -8262,13 +9000,16 @@
         <v>0.04548366776185464</v>
       </c>
       <c r="I248">
-        <v>0.08945261639092439</v>
+        <v>0.08588990916231828</v>
       </c>
       <c r="J248">
         <v>0.08945261639092439</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.08945261639092439</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8285,7 +9026,7 @@
         <v>16.44000053405762</v>
       </c>
       <c r="F249">
-        <v>14.46903800964355</v>
+        <v>14.46903896331787</v>
       </c>
       <c r="G249">
         <v>104100</v>
@@ -8294,13 +9035,16 @@
         <v>0.007352992737583053</v>
       </c>
       <c r="I249">
-        <v>0.02878604536911733</v>
+        <v>0.08572488998069455</v>
       </c>
       <c r="J249">
         <v>0.02878604536911733</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0.02878604536911733</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8326,13 +9070,16 @@
         <v>-0.02128956022505324</v>
       </c>
       <c r="I250">
-        <v>0.02288624417215845</v>
+        <v>0.08560972961390023</v>
       </c>
       <c r="J250">
         <v>0.02288624417215845</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0.02288624417215845</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8358,13 +9105,16 @@
         <v>0.02734621068271692</v>
       </c>
       <c r="I251">
-        <v>0.05623010156966868</v>
+        <v>0.08549351043826625</v>
       </c>
       <c r="J251">
         <v>0.05623010156966868</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0.05623010156966868</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F252">
-        <v>15.41054153442383</v>
+        <v>15.41054058074951</v>
       </c>
       <c r="G252">
         <v>218800</v>
@@ -8390,13 +9140,16 @@
         <v>0.05565638463870171</v>
       </c>
       <c r="I252">
-        <v>0.2219888717959164</v>
+        <v>0.08565949767913984</v>
       </c>
       <c r="J252">
         <v>0.2219888717959164</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.2219888717959164</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>17.39999961853027</v>
       </c>
       <c r="F253">
-        <v>15.36638164520264</v>
+        <v>15.36638069152832</v>
       </c>
       <c r="G253">
         <v>75500</v>
@@ -8422,13 +9175,16 @@
         <v>-0.002865394969802648</v>
       </c>
       <c r="I253">
-        <v>0.2305515697350722</v>
+        <v>0.08563158148004121</v>
       </c>
       <c r="J253">
         <v>0.2305515697350722</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.2305515697350722</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8454,13 +9210,16 @@
         <v>0.0442529008416559</v>
       </c>
       <c r="I254">
-        <v>0.1558524025221408</v>
+        <v>0.08535667870171446</v>
       </c>
       <c r="J254">
         <v>0.1558524025221408</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.1558524025221408</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8477,7 +9236,7 @@
         <v>19.59000015258789</v>
       </c>
       <c r="F255">
-        <v>17.30043029785156</v>
+        <v>17.3004322052002</v>
       </c>
       <c r="G255">
         <v>232300</v>
@@ -8486,13 +9245,16 @@
         <v>0.07815080188946122</v>
       </c>
       <c r="I255">
-        <v>0.2062808145741168</v>
+        <v>0.08557771423423106</v>
       </c>
       <c r="J255">
         <v>0.2062808145741168</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.2062808145741168</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8509,7 +9271,7 @@
         <v>21.15999984741211</v>
       </c>
       <c r="F256">
-        <v>18.68693542480469</v>
+        <v>18.68693733215332</v>
       </c>
       <c r="G256">
         <v>291000</v>
@@ -8518,13 +9280,16 @@
         <v>0.08014291386398065</v>
       </c>
       <c r="I256">
-        <v>0.3722438224849685</v>
+        <v>0.08589119930145968</v>
       </c>
       <c r="J256">
         <v>0.3722438224849685</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.3722438224849685</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8550,13 +9315,16 @@
         <v>0.003780714758173209</v>
       </c>
       <c r="I257">
-        <v>0.4989414013237834</v>
+        <v>0.08585852603025079</v>
       </c>
       <c r="J257">
         <v>0.4989414013237834</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.4989414013237834</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8573,7 +9341,7 @@
         <v>22.85000038146973</v>
       </c>
       <c r="F258">
-        <v>20.47968292236328</v>
+        <v>20.47968482971191</v>
       </c>
       <c r="G258">
         <v>306900</v>
@@ -8582,13 +9350,16 @@
         <v>0.07580040620060724</v>
       </c>
       <c r="I258">
-        <v>0.5072559770091516</v>
+        <v>0.08601587444314782</v>
       </c>
       <c r="J258">
         <v>0.5072559770091516</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.5072559770091516</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8605,7 +9376,7 @@
         <v>22.93000030517578</v>
       </c>
       <c r="F259">
-        <v>20.5513858795166</v>
+        <v>20.55138969421387</v>
       </c>
       <c r="G259">
         <v>268700</v>
@@ -8614,13 +9385,16 @@
         <v>0.003501090694551179</v>
       </c>
       <c r="I259">
-        <v>0.4689302248233793</v>
+        <v>0.08600130285756663</v>
       </c>
       <c r="J259">
         <v>0.4689302248233793</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.4689302248233793</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>23.42000007629395</v>
       </c>
       <c r="F260">
-        <v>20.99055671691895</v>
+        <v>20.99055480957031</v>
       </c>
       <c r="G260">
         <v>57300</v>
@@ -8646,13 +9420,16 @@
         <v>0.02136937481887258</v>
       </c>
       <c r="I260">
-        <v>0.4350490511174119</v>
+        <v>0.08601918193512402</v>
       </c>
       <c r="J260">
         <v>0.4350490511174119</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.4350490511174119</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>23.85000038146973</v>
       </c>
       <c r="F261">
-        <v>21.37595176696777</v>
+        <v>21.37595367431641</v>
       </c>
       <c r="G261">
         <v>298700</v>
@@ -8678,13 +9455,16 @@
         <v>0.01836038871797596</v>
       </c>
       <c r="I261">
-        <v>0.4507299030837209</v>
+        <v>0.08568779543207279</v>
       </c>
       <c r="J261">
         <v>0.4507299030837209</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.4507299030837209</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8701,7 +9481,7 @@
         <v>24.03000068664551</v>
       </c>
       <c r="F262">
-        <v>21.53728103637695</v>
+        <v>21.53727912902832</v>
       </c>
       <c r="G262">
         <v>177000</v>
@@ -8710,13 +9490,16 @@
         <v>0.007547182486237203</v>
       </c>
       <c r="I262">
-        <v>0.4934742360944329</v>
+        <v>0.08544426365515702</v>
       </c>
       <c r="J262">
         <v>0.4934742360944329</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.4934742360944329</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8742,13 +9525,16 @@
         <v>0.02538488079785739</v>
       </c>
       <c r="I263">
-        <v>0.4906230106544975</v>
+        <v>0.085441734861849</v>
       </c>
       <c r="J263">
         <v>0.4906230106544975</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.4906230106544975</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8774,13 +9560,16 @@
         <v>0.08563314377507658</v>
       </c>
       <c r="I264">
-        <v>0.5329512223754174</v>
+        <v>0.08515094736247503</v>
       </c>
       <c r="J264">
         <v>0.5329512223754174</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.5329512223754174</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8806,13 +9595,16 @@
         <v>-0.05794389671254385</v>
       </c>
       <c r="I265">
-        <v>0.4482759376674068</v>
+        <v>0.08532203818280495</v>
       </c>
       <c r="J265">
         <v>0.4482759376674068</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.4482759376674068</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8838,13 +9630,16 @@
         <v>0.006349200101906982</v>
       </c>
       <c r="I266">
-        <v>0.3957072374170363</v>
+        <v>0.08531367578264783</v>
       </c>
       <c r="J266">
         <v>0.3957072374170363</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.3957072374170363</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>25.20999908447266</v>
       </c>
       <c r="F267">
-        <v>22.77220916748047</v>
+        <v>22.7722110748291</v>
       </c>
       <c r="G267">
         <v>31200</v>
@@ -8870,13 +9665,16 @@
         <v>-0.005914886524792773</v>
       </c>
       <c r="I267">
-        <v>0.2868810050081776</v>
+        <v>0.08477552865569443</v>
       </c>
       <c r="J267">
         <v>0.2868810050081776</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.2868810050081776</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8902,13 +9700,16 @@
         <v>-0.05831016924787968</v>
       </c>
       <c r="I268">
-        <v>0.1219281636252749</v>
+        <v>0.08485094977583385</v>
       </c>
       <c r="J268">
         <v>0.1219281636252749</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>0.1219281636252749</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>22.64999961853027</v>
       </c>
       <c r="F269">
-        <v>20.89932441711426</v>
+        <v>20.89932632446289</v>
       </c>
       <c r="G269">
         <v>108900</v>
@@ -8934,13 +9735,16 @@
         <v>-0.04591407595184449</v>
       </c>
       <c r="I269">
-        <v>0.06638417432232768</v>
+        <v>0.08443872103232486</v>
       </c>
       <c r="J269">
         <v>0.06638417432232768</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.06638417432232768</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8957,7 +9761,7 @@
         <v>23.79999923706055</v>
       </c>
       <c r="F270">
-        <v>21.96043586730957</v>
+        <v>21.9604377746582</v>
       </c>
       <c r="G270">
         <v>78000</v>
@@ -8966,13 +9770,16 @@
         <v>0.0507726109447455</v>
       </c>
       <c r="I270">
-        <v>0.04157544156372195</v>
+        <v>0.08413048515366899</v>
       </c>
       <c r="J270">
         <v>0.04157544156372195</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>0.04157544156372195</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8998,13 +9805,16 @@
         <v>-0.04201680806959163</v>
       </c>
       <c r="I271">
-        <v>-0.005669475202139007</v>
+        <v>0.08400311825631694</v>
       </c>
       <c r="J271">
         <v>-0.005669475202139007</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.005669475202139007</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9021,7 +9831,7 @@
         <v>22.8799991607666</v>
       </c>
       <c r="F272">
-        <v>21.11154556274414</v>
+        <v>21.11154747009277</v>
       </c>
       <c r="G272">
         <v>100300</v>
@@ -9030,13 +9840,16 @@
         <v>0.003508768701010245</v>
       </c>
       <c r="I272">
-        <v>-0.02305725507123035</v>
+        <v>0.0804725968264962</v>
       </c>
       <c r="J272">
         <v>-0.02305725507123035</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.02305725507123035</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9062,13 +9875,16 @@
         <v>-0.07430065200814728</v>
       </c>
       <c r="I273">
-        <v>-0.1119496869429153</v>
+        <v>0.073624874551366</v>
       </c>
       <c r="J273">
         <v>-0.1119496869429153</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.1119496869429153</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9094,13 +9910,16 @@
         <v>-0.02455148490420933</v>
       </c>
       <c r="I274">
-        <v>-0.1402413958775395</v>
+        <v>0.07263591923135139</v>
       </c>
       <c r="J274">
         <v>-0.1402413958775395</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1402413958775395</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9117,7 +9936,7 @@
         <v>18.36000061035156</v>
       </c>
       <c r="F275">
-        <v>17.16503715515137</v>
+        <v>17.1650390625</v>
       </c>
       <c r="G275">
         <v>210900</v>
@@ -9126,13 +9945,16 @@
         <v>-0.1113261981629998</v>
       </c>
       <c r="I275">
-        <v>-0.2548700866419331</v>
+        <v>0.07323583737887424</v>
       </c>
       <c r="J275">
         <v>-0.2548700866419331</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.2548700866419331</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9149,7 +9971,7 @@
         <v>19.95999908447266</v>
       </c>
       <c r="F276">
-        <v>18.6609001159668</v>
+        <v>18.66089820861816</v>
       </c>
       <c r="G276">
         <v>57300</v>
@@ -9158,13 +9980,16 @@
         <v>0.08714588349299923</v>
       </c>
       <c r="I276">
-        <v>-0.2538318099262559</v>
+        <v>0.07318673857345033</v>
       </c>
       <c r="J276">
         <v>-0.2538318099262559</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.2538318099262559</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>20.11000061035156</v>
       </c>
       <c r="F277">
-        <v>18.80113792419434</v>
+        <v>18.8011360168457</v>
       </c>
       <c r="G277">
         <v>29000</v>
@@ -9190,13 +10015,16 @@
         <v>0.007515106851663012</v>
       </c>
       <c r="I277">
-        <v>-0.2019841269240568</v>
+        <v>0.07172741124495409</v>
       </c>
       <c r="J277">
         <v>-0.2019841269240568</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.2019841269240568</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9222,13 +10050,16 @@
         <v>-0.01093989129915196</v>
       </c>
       <c r="I278">
-        <v>-0.215694049252915</v>
+        <v>0.06933672099159335</v>
       </c>
       <c r="J278">
         <v>-0.215694049252915</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.215694049252915</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>21.23999977111816</v>
       </c>
       <c r="F279">
-        <v>19.85759162902832</v>
+        <v>19.85758972167969</v>
       </c>
       <c r="G279">
         <v>11700</v>
@@ -9254,13 +10085,16 @@
         <v>0.06787332442917626</v>
       </c>
       <c r="I279">
-        <v>-0.1574771700725565</v>
+        <v>0.06877409102446473</v>
       </c>
       <c r="J279">
         <v>-0.1574771700725565</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.1574771700725565</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9286,13 +10120,16 @@
         <v>-0.0819208940615993</v>
       </c>
       <c r="I280">
-        <v>-0.1786015085087113</v>
+        <v>0.0664159103948692</v>
       </c>
       <c r="J280">
         <v>-0.1786015085087113</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.1786015085087113</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9318,13 +10155,16 @@
         <v>0.01794873751126813</v>
       </c>
       <c r="I281">
-        <v>-0.1236202774489157</v>
+        <v>0.06632420352446881</v>
       </c>
       <c r="J281">
         <v>-0.1236202774489157</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.1236202774489157</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9341,7 +10181,7 @@
         <v>19.32999992370605</v>
       </c>
       <c r="F282">
-        <v>18.56734275817871</v>
+        <v>18.56734085083008</v>
       </c>
       <c r="G282">
         <v>27100</v>
@@ -9350,13 +10190,16 @@
         <v>-0.02619649610934516</v>
       </c>
       <c r="I282">
-        <v>-0.1878151032204221</v>
+        <v>0.06596567134578483</v>
       </c>
       <c r="J282">
         <v>-0.1878151032204221</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.1878151032204221</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>18.84000015258789</v>
       </c>
       <c r="F283">
-        <v>18.0966739654541</v>
+        <v>18.09667778015137</v>
       </c>
       <c r="G283">
         <v>3000</v>
@@ -9382,13 +10225,16 @@
         <v>-0.02534918639690398</v>
       </c>
       <c r="I283">
-        <v>-0.1736841761834722</v>
+        <v>0.06438812400426769</v>
       </c>
       <c r="J283">
         <v>-0.1736841761834722</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.1736841761834722</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9414,13 +10260,16 @@
         <v>0.02229299749959157</v>
       </c>
       <c r="I284">
-        <v>-0.1582167423367806</v>
+        <v>0.06401912150052734</v>
       </c>
       <c r="J284">
         <v>-0.1582167423367806</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.1582167423367806</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9437,7 +10286,7 @@
         <v>20.5</v>
       </c>
       <c r="F285">
-        <v>19.69118118286133</v>
+        <v>19.69118309020996</v>
       </c>
       <c r="G285">
         <v>35000</v>
@@ -9446,13 +10295,16 @@
         <v>0.06438212649959829</v>
       </c>
       <c r="I285">
-        <v>-0.03210577409716131</v>
+        <v>0.06399880918455422</v>
       </c>
       <c r="J285">
         <v>-0.03210577409716131</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>-0.03210577409716131</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9478,13 +10330,16 @@
         <v>-0.009756134777534342</v>
       </c>
       <c r="I286">
-        <v>-0.01742500547001002</v>
+        <v>0.0639393952210749</v>
       </c>
       <c r="J286">
         <v>-0.01742500547001002</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>-0.01742500547001002</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9510,13 +10365,16 @@
         <v>0.02463054279761634</v>
       </c>
       <c r="I287">
-        <v>0.1328975242698678</v>
+        <v>0.06353834330396861</v>
       </c>
       <c r="J287">
         <v>0.1328975242698678</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.1328975242698678</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>19.98999977111816</v>
       </c>
       <c r="F288">
-        <v>19.3095645904541</v>
+        <v>19.30956268310547</v>
       </c>
       <c r="G288">
         <v>19000</v>
@@ -9542,13 +10400,16 @@
         <v>-0.03894228344485517</v>
       </c>
       <c r="I288">
-        <v>0.001503040482043305</v>
+        <v>0.06353882248982072</v>
       </c>
       <c r="J288">
         <v>0.001503040482043305</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.001503040482043305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9574,13 +10435,16 @@
         <v>-0.09354672102530814</v>
       </c>
       <c r="I289">
-        <v>-0.09895572902637395</v>
+        <v>0.06410127414671422</v>
       </c>
       <c r="J289">
         <v>-0.09895572902637395</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.09895572902637395</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9606,13 +10470,16 @@
         <v>-0.2764901186819211</v>
       </c>
       <c r="I290">
-        <v>-0.340874808497972</v>
+        <v>0.06860572202474939</v>
       </c>
       <c r="J290">
         <v>-0.340874808497972</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.340874808497972</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>14.39999961853027</v>
       </c>
       <c r="F291">
-        <v>13.90984058380127</v>
+        <v>13.90984153747559</v>
       </c>
       <c r="G291">
         <v>29600</v>
@@ -9638,13 +10505,16 @@
         <v>0.09839816900345988</v>
       </c>
       <c r="I291">
-        <v>-0.3220339089593034</v>
+        <v>0.06920310581232221</v>
       </c>
       <c r="J291">
         <v>-0.3220339089593034</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.3220339089593034</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>0.01944449264326331</v>
       </c>
       <c r="I292">
-        <v>-0.2471794715294471</v>
+        <v>0.06766355377812167</v>
       </c>
       <c r="J292">
         <v>-0.2471794715294471</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.2471794715294471</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9702,13 +10575,16 @@
         <v>0.0177111219211521</v>
       </c>
       <c r="I293">
-        <v>-0.2473551993313806</v>
+        <v>0.06725092590044777</v>
       </c>
       <c r="J293">
         <v>-0.2473551993313806</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.2473551993313806</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9725,7 +10601,7 @@
         <v>14.85000038146973</v>
       </c>
       <c r="F294">
-        <v>14.34452342987061</v>
+        <v>14.34452438354492</v>
       </c>
       <c r="G294">
         <v>27400</v>
@@ -9734,13 +10610,16 @@
         <v>-0.006024042934495544</v>
       </c>
       <c r="I294">
-        <v>-0.2317640744913877</v>
+        <v>0.06496193680683646</v>
       </c>
       <c r="J294">
         <v>-0.2317640744913877</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.2317640744913877</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9766,13 +10645,16 @@
         <v>0.04915821706962675</v>
       </c>
       <c r="I295">
-        <v>-0.1730361041655319</v>
+        <v>0.06489394979177211</v>
       </c>
       <c r="J295">
         <v>-0.1730361041655319</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.1730361041655319</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9798,13 +10680,16 @@
         <v>-0.06097559781240092</v>
       </c>
       <c r="I296">
-        <v>-0.2403946032927808</v>
+        <v>0.06369450266154188</v>
       </c>
       <c r="J296">
         <v>-0.2403946032927808</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.2403946032927808</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9821,7 +10706,7 @@
         <v>14.23999977111816</v>
       </c>
       <c r="F297">
-        <v>13.75528621673584</v>
+        <v>13.75528717041016</v>
       </c>
       <c r="G297">
         <v>7500</v>
@@ -9830,13 +10715,16 @@
         <v>-0.02665757623185483</v>
       </c>
       <c r="I297">
-        <v>-0.3053658648235041</v>
+        <v>0.06341691821996204</v>
       </c>
       <c r="J297">
         <v>-0.3053658648235041</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.3053658648235041</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9853,7 +10741,7 @@
         <v>18.06999969482422</v>
       </c>
       <c r="F298">
-        <v>17.45491981506348</v>
+        <v>17.45491790771484</v>
       </c>
       <c r="G298">
         <v>75700</v>
@@ -9862,13 +10750,16 @@
         <v>0.2689606731226311</v>
       </c>
       <c r="I298">
-        <v>-0.1098521983274338</v>
+        <v>0.06752277213765746</v>
       </c>
       <c r="J298">
         <v>-0.1098521983274338</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>-0.1098521983274338</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9894,13 +10785,16 @@
         <v>0.09739901818514984</v>
       </c>
       <c r="I299">
-        <v>-0.04663458408335852</v>
+        <v>0.06642624705909861</v>
       </c>
       <c r="J299">
         <v>-0.04663458408335852</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>-0.04663458408335852</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9926,13 +10820,16 @@
         <v>0.0458900580389936</v>
       </c>
       <c r="I300">
-        <v>0.03751875980927277</v>
+        <v>0.06654678901577936</v>
       </c>
       <c r="J300">
         <v>0.03751875980927277</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.03751875980927277</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>0.02459017524156604</v>
       </c>
       <c r="I301">
-        <v>0.172737252527579</v>
+        <v>0.06657818066600368</v>
       </c>
       <c r="J301">
         <v>0.172737252527579</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.172737252527579</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9981,7 +10881,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F302">
-        <v>21.41298484802246</v>
+        <v>21.41298294067383</v>
       </c>
       <c r="G302">
         <v>88600</v>
@@ -9990,13 +10890,16 @@
         <v>0.0324706133674173</v>
       </c>
       <c r="I302">
-        <v>0.6735317397878828</v>
+        <v>0.06658600959569104</v>
       </c>
       <c r="J302">
         <v>0.6735317397878828</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.6735317397878828</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10022,13 +10925,16 @@
         <v>0.05560616607372815</v>
       </c>
       <c r="I303">
-        <v>0.6083333653432359</v>
+        <v>0.06674194500755998</v>
       </c>
       <c r="J303">
         <v>0.6083333653432359</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.6083333653432359</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10054,13 +10960,16 @@
         <v>0.08937822575398324</v>
       </c>
       <c r="I304">
-        <v>0.7186647832248951</v>
+        <v>0.06716216500432816</v>
       </c>
       <c r="J304">
         <v>0.7186647832248951</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.7186647832248951</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.0499405569458109</v>
       </c>
       <c r="I305">
-        <v>0.6044176697854711</v>
+        <v>0.06729669328169113</v>
       </c>
       <c r="J305">
         <v>0.6044176697854711</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.6044176697854711</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>0.01585319478517988</v>
       </c>
       <c r="I306">
-        <v>0.6397306232971134</v>
+        <v>0.06694910522805871</v>
       </c>
       <c r="J306">
         <v>0.6397306232971134</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.6397306232971134</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.03901432610710631</v>
       </c>
       <c r="I307">
-        <v>0.6238767240662715</v>
+        <v>0.06612117191611544</v>
       </c>
       <c r="J307">
         <v>0.6238767240662715</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.6238767240662715</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.01699598461636587</v>
       </c>
       <c r="I308">
-        <v>0.6999316913664837</v>
+        <v>0.06352104447891656</v>
       </c>
       <c r="J308">
         <v>0.6999316913664837</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.6999316913664837</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.0241253901839269</v>
       </c>
       <c r="I309">
-        <v>0.7886235760349678</v>
+        <v>0.06331556698449593</v>
       </c>
       <c r="J309">
         <v>0.7886235760349678</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.7886235760349678</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.04161756947463291</v>
       </c>
       <c r="I310">
-        <v>0.3508577896879463</v>
+        <v>0.06300118377062472</v>
       </c>
       <c r="J310">
         <v>0.3508577896879463</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.3508577896879463</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
+        <v>25.54000091552734</v>
+      </c>
+      <c r="C311">
+        <v>25.54999923706055</v>
+      </c>
+      <c r="D311">
+        <v>25.32999992370605</v>
+      </c>
+      <c r="E311">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="F311">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="G311">
+        <v>39000</v>
+      </c>
+      <c r="H311">
+        <v>0.04260552732603151</v>
+      </c>
+      <c r="I311">
+        <v>0.06297130063275565</v>
+      </c>
+      <c r="J311">
+        <v>0.2834090197103274</v>
+      </c>
+      <c r="K311">
+        <v>0.2834090197103274</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>25.52000045776367</v>
+      </c>
+      <c r="C312">
+        <v>25.56999969482422</v>
+      </c>
+      <c r="D312">
+        <v>25.3799991607666</v>
+      </c>
+      <c r="E312">
         <v>25.45999908447266</v>
       </c>
-      <c r="C311">
-        <v>25.43000030517578</v>
-      </c>
-      <c r="D311">
-        <v>25.36000061035156</v>
-      </c>
-      <c r="E311">
-        <v>25.38999938964844</v>
-      </c>
-      <c r="F311">
-        <v>25.38999938964844</v>
-      </c>
-      <c r="G311">
-        <v>28228</v>
-      </c>
-      <c r="H311">
-        <v>0.04014746203860486</v>
-      </c>
-      <c r="I311">
-        <v>0.2803832318373134</v>
-      </c>
-      <c r="J311">
-        <v>0.2803832318373134</v>
+      <c r="F312">
+        <v>25.45999908447266</v>
+      </c>
+      <c r="G312">
+        <v>258744</v>
+      </c>
+      <c r="H312">
+        <v>0.0003928613451267271</v>
+      </c>
+      <c r="I312">
+        <v>0.0623249777013466</v>
+      </c>
+      <c r="J312">
+        <v>0.2275795258169389</v>
+      </c>
+      <c r="K312">
+        <v>0.2275795258169389</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWO.xlsx
+++ b/etf_dfs/EWO.xlsx
@@ -508,7 +508,7 @@
         <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>5.894314289093018</v>
+        <v>5.894313812255859</v>
       </c>
       <c r="G2" t="n">
         <v>100000</v>
@@ -535,7 +535,7 @@
         <v>10.9375</v>
       </c>
       <c r="F3" t="n">
-        <v>5.860824108123779</v>
+        <v>5.860823631286621</v>
       </c>
       <c r="G3" t="n">
         <v>20000</v>
@@ -595,7 +595,7 @@
         <v>10.875</v>
       </c>
       <c r="F5" t="n">
-        <v>5.827333927154541</v>
+        <v>5.827332973480225</v>
       </c>
       <c r="G5" t="n">
         <v>19200</v>
@@ -688,7 +688,7 @@
         <v>10.125</v>
       </c>
       <c r="F8" t="n">
-        <v>5.497892379760742</v>
+        <v>5.497891902923584</v>
       </c>
       <c r="G8" t="n">
         <v>900</v>
@@ -719,7 +719,7 @@
         <v>10.0625</v>
       </c>
       <c r="F9" t="n">
-        <v>5.463955402374268</v>
+        <v>5.463953971862793</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>10.25</v>
       </c>
       <c r="F10" t="n">
-        <v>5.565766334533691</v>
+        <v>5.565767288208008</v>
       </c>
       <c r="G10" t="n">
         <v>100</v>
@@ -781,7 +781,7 @@
         <v>10.5</v>
       </c>
       <c r="F11" t="n">
-        <v>5.701517105102539</v>
+        <v>5.701515674591064</v>
       </c>
       <c r="G11" t="n">
         <v>200</v>
@@ -812,7 +812,7 @@
         <v>10.1875</v>
       </c>
       <c r="F12" t="n">
-        <v>5.531827926635742</v>
+        <v>5.531829833984375</v>
       </c>
       <c r="G12" t="n">
         <v>400</v>
@@ -843,7 +843,7 @@
         <v>10.1875</v>
       </c>
       <c r="F13" t="n">
-        <v>5.531827926635742</v>
+        <v>5.531829833984375</v>
       </c>
       <c r="G13" t="n">
         <v>800</v>
@@ -874,7 +874,7 @@
         <v>10.375</v>
       </c>
       <c r="F14" t="n">
-        <v>5.633642196655273</v>
+        <v>5.633640289306641</v>
       </c>
       <c r="G14" t="n">
         <v>10000</v>
@@ -909,7 +909,7 @@
         <v>10.0625</v>
       </c>
       <c r="F15" t="n">
-        <v>5.463955402374268</v>
+        <v>5.463953971862793</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>10.6875</v>
       </c>
       <c r="F16" t="n">
-        <v>5.803328514099121</v>
+        <v>5.803329467773438</v>
       </c>
       <c r="G16" t="n">
         <v>300</v>
@@ -1014,7 +1014,7 @@
         <v>11.375</v>
       </c>
       <c r="F18" t="n">
-        <v>6.176644325256348</v>
+        <v>6.176642894744873</v>
       </c>
       <c r="G18" t="n">
         <v>600</v>
@@ -1084,7 +1084,7 @@
         <v>11.25</v>
       </c>
       <c r="F20" t="n">
-        <v>6.108768463134766</v>
+        <v>6.108767509460449</v>
       </c>
       <c r="G20" t="n">
         <v>300</v>
@@ -1119,7 +1119,7 @@
         <v>10.8125</v>
       </c>
       <c r="F21" t="n">
-        <v>5.871207237243652</v>
+        <v>5.871204376220703</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>5.430015563964844</v>
+        <v>5.430016994476318</v>
       </c>
       <c r="G22" t="n">
         <v>500</v>
@@ -1189,7 +1189,7 @@
         <v>10.75</v>
       </c>
       <c r="F23" t="n">
-        <v>5.857145309448242</v>
+        <v>5.8571457862854</v>
       </c>
       <c r="G23" t="n">
         <v>5000</v>
@@ -1294,7 +1294,7 @@
         <v>12.1875</v>
       </c>
       <c r="F26" t="n">
-        <v>6.64037036895752</v>
+        <v>6.640367984771729</v>
       </c>
       <c r="G26" t="n">
         <v>3000</v>
@@ -1329,7 +1329,7 @@
         <v>12.9375</v>
       </c>
       <c r="F27" t="n">
-        <v>7.049008369445801</v>
+        <v>7.049007892608643</v>
       </c>
       <c r="G27" t="n">
         <v>900</v>
@@ -1364,7 +1364,7 @@
         <v>13.75</v>
       </c>
       <c r="F28" t="n">
-        <v>7.491699695587158</v>
+        <v>7.49169921875</v>
       </c>
       <c r="G28" t="n">
         <v>24500</v>
@@ -1399,7 +1399,7 @@
         <v>12.625</v>
       </c>
       <c r="F29" t="n">
-        <v>6.878740310668945</v>
+        <v>6.878741264343262</v>
       </c>
       <c r="G29" t="n">
         <v>1800</v>
@@ -1434,7 +1434,7 @@
         <v>12.75</v>
       </c>
       <c r="F30" t="n">
-        <v>6.94684886932373</v>
+        <v>6.946848392486572</v>
       </c>
       <c r="G30" t="n">
         <v>3100</v>
@@ -1469,7 +1469,7 @@
         <v>9.625</v>
       </c>
       <c r="F31" t="n">
-        <v>5.573128223419189</v>
+        <v>5.573128700256348</v>
       </c>
       <c r="G31" t="n">
         <v>20900</v>
@@ -1539,7 +1539,7 @@
         <v>10.0625</v>
       </c>
       <c r="F33" t="n">
-        <v>5.826451778411865</v>
+        <v>5.826451301574707</v>
       </c>
       <c r="G33" t="n">
         <v>14700</v>
@@ -1574,7 +1574,7 @@
         <v>9.5</v>
       </c>
       <c r="F34" t="n">
-        <v>5.50075101852417</v>
+        <v>5.500750064849854</v>
       </c>
       <c r="G34" t="n">
         <v>48000</v>
@@ -1644,7 +1644,7 @@
         <v>9.375</v>
       </c>
       <c r="F36" t="n">
-        <v>5.81981897354126</v>
+        <v>5.819819450378418</v>
       </c>
       <c r="G36" t="n">
         <v>400</v>
@@ -1679,7 +1679,7 @@
         <v>9.5625</v>
       </c>
       <c r="F37" t="n">
-        <v>5.936214923858643</v>
+        <v>5.936216831207275</v>
       </c>
       <c r="G37" t="n">
         <v>7800</v>
@@ -1714,7 +1714,7 @@
         <v>9.375</v>
       </c>
       <c r="F38" t="n">
-        <v>5.81981897354126</v>
+        <v>5.819819450378418</v>
       </c>
       <c r="G38" t="n">
         <v>500</v>
@@ -1784,7 +1784,7 @@
         <v>9.25</v>
       </c>
       <c r="F40" t="n">
-        <v>5.742222309112549</v>
+        <v>5.742220878601074</v>
       </c>
       <c r="G40" t="n">
         <v>10100</v>
@@ -1819,7 +1819,7 @@
         <v>9.5</v>
       </c>
       <c r="F41" t="n">
-        <v>5.897418022155762</v>
+        <v>5.897417545318604</v>
       </c>
       <c r="G41" t="n">
         <v>17800</v>
@@ -1854,7 +1854,7 @@
         <v>9.25</v>
       </c>
       <c r="F42" t="n">
-        <v>5.742222309112549</v>
+        <v>5.742220878601074</v>
       </c>
       <c r="G42" t="n">
         <v>4900</v>
@@ -1889,7 +1889,7 @@
         <v>9.125</v>
       </c>
       <c r="F43" t="n">
-        <v>5.727355003356934</v>
+        <v>5.727354526519775</v>
       </c>
       <c r="G43" t="n">
         <v>800</v>
@@ -1924,7 +1924,7 @@
         <v>8.625</v>
       </c>
       <c r="F44" t="n">
-        <v>5.413527488708496</v>
+        <v>5.413527011871338</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>8.5</v>
       </c>
       <c r="F45" t="n">
-        <v>5.335071563720703</v>
+        <v>5.335070133209229</v>
       </c>
       <c r="G45" t="n">
         <v>5900</v>
@@ -1994,7 +1994,7 @@
         <v>8.125</v>
       </c>
       <c r="F46" t="n">
-        <v>5.099700450897217</v>
+        <v>5.099699974060059</v>
       </c>
       <c r="G46" t="n">
         <v>3500</v>
@@ -2029,7 +2029,7 @@
         <v>8.3125</v>
       </c>
       <c r="F47" t="n">
-        <v>5.217384815216064</v>
+        <v>5.217387199401855</v>
       </c>
       <c r="G47" t="n">
         <v>44600</v>
@@ -2064,7 +2064,7 @@
         <v>8.125</v>
       </c>
       <c r="F48" t="n">
-        <v>5.099700450897217</v>
+        <v>5.099699974060059</v>
       </c>
       <c r="G48" t="n">
         <v>1100</v>
@@ -2099,7 +2099,7 @@
         <v>7.75</v>
       </c>
       <c r="F49" t="n">
-        <v>4.864330291748047</v>
+        <v>4.864329814910889</v>
       </c>
       <c r="G49" t="n">
         <v>3900</v>
@@ -2134,7 +2134,7 @@
         <v>7.75</v>
       </c>
       <c r="F50" t="n">
-        <v>4.864330291748047</v>
+        <v>4.864329814910889</v>
       </c>
       <c r="G50" t="n">
         <v>1500</v>
@@ -2169,7 +2169,7 @@
         <v>7.5625</v>
       </c>
       <c r="F51" t="n">
-        <v>4.746643543243408</v>
+        <v>4.746645450592041</v>
       </c>
       <c r="G51" t="n">
         <v>10700</v>
@@ -2274,7 +2274,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>5.021243572235107</v>
+        <v>5.021242141723633</v>
       </c>
       <c r="G54" t="n">
         <v>1500</v>
@@ -2379,7 +2379,7 @@
         <v>7.1875</v>
       </c>
       <c r="F57" t="n">
-        <v>4.536792755126953</v>
+        <v>4.536791801452637</v>
       </c>
       <c r="G57" t="n">
         <v>18600</v>
@@ -2414,7 +2414,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>4.418441772460938</v>
+        <v>4.418442249298096</v>
       </c>
       <c r="G58" t="n">
         <v>3600</v>
@@ -2449,7 +2449,7 @@
         <v>7.5625</v>
       </c>
       <c r="F59" t="n">
-        <v>4.800209045410156</v>
+        <v>4.800209522247314</v>
       </c>
       <c r="G59" t="n">
         <v>18800</v>
@@ -2519,7 +2519,7 @@
         <v>8.550000190734863</v>
       </c>
       <c r="F61" t="n">
-        <v>5.427013397216797</v>
+        <v>5.427013874053955</v>
       </c>
       <c r="G61" t="n">
         <v>14300</v>
@@ -2554,7 +2554,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F62" t="n">
-        <v>5.046171188354492</v>
+        <v>5.046170234680176</v>
       </c>
       <c r="G62" t="n">
         <v>5200</v>
@@ -2589,7 +2589,7 @@
         <v>8.159999847412109</v>
       </c>
       <c r="F63" t="n">
-        <v>5.179465293884277</v>
+        <v>5.179464817047119</v>
       </c>
       <c r="G63" t="n">
         <v>1300</v>
@@ -2659,7 +2659,7 @@
         <v>7.849999904632568</v>
       </c>
       <c r="F65" t="n">
-        <v>4.982696056365967</v>
+        <v>4.982695579528809</v>
       </c>
       <c r="G65" t="n">
         <v>700</v>
@@ -2694,7 +2694,7 @@
         <v>8.180000305175781</v>
       </c>
       <c r="F66" t="n">
-        <v>5.192161083221436</v>
+        <v>5.192160606384277</v>
       </c>
       <c r="G66" t="n">
         <v>3000</v>
@@ -2764,7 +2764,7 @@
         <v>7.199999809265137</v>
       </c>
       <c r="F68" t="n">
-        <v>4.645326614379883</v>
+        <v>4.645327091217041</v>
       </c>
       <c r="G68" t="n">
         <v>5200</v>
@@ -2799,7 +2799,7 @@
         <v>6.75</v>
       </c>
       <c r="F69" t="n">
-        <v>4.35499382019043</v>
+        <v>4.354993343353271</v>
       </c>
       <c r="G69" t="n">
         <v>1500</v>
@@ -2834,7 +2834,7 @@
         <v>7.369999885559082</v>
       </c>
       <c r="F70" t="n">
-        <v>4.755007266998291</v>
+        <v>4.755008697509766</v>
       </c>
       <c r="G70" t="n">
         <v>28600</v>
@@ -2869,7 +2869,7 @@
         <v>7.28000020980835</v>
       </c>
       <c r="F71" t="n">
-        <v>4.696940422058105</v>
+        <v>4.69694185256958</v>
       </c>
       <c r="G71" t="n">
         <v>5700</v>
@@ -2904,7 +2904,7 @@
         <v>7.380000114440918</v>
       </c>
       <c r="F72" t="n">
-        <v>4.761460304260254</v>
+        <v>4.761459350585938</v>
       </c>
       <c r="G72" t="n">
         <v>400</v>
@@ -2974,7 +2974,7 @@
         <v>8.270000457763672</v>
       </c>
       <c r="F74" t="n">
-        <v>5.335673809051514</v>
+        <v>5.335673332214355</v>
       </c>
       <c r="G74" t="n">
         <v>6200</v>
@@ -3009,7 +3009,7 @@
         <v>8.930000305175781</v>
       </c>
       <c r="F75" t="n">
-        <v>5.761496543884277</v>
+        <v>5.761494636535645</v>
       </c>
       <c r="G75" t="n">
         <v>31200</v>
@@ -3114,7 +3114,7 @@
         <v>8.199999809265137</v>
       </c>
       <c r="F78" t="n">
-        <v>5.290511608123779</v>
+        <v>5.290510654449463</v>
       </c>
       <c r="G78" t="n">
         <v>1700</v>
@@ -3149,7 +3149,7 @@
         <v>8.029999732971191</v>
       </c>
       <c r="F79" t="n">
-        <v>5.18082857131958</v>
+        <v>5.180829048156738</v>
       </c>
       <c r="G79" t="n">
         <v>1100</v>
@@ -3219,7 +3219,7 @@
         <v>7.789999961853027</v>
       </c>
       <c r="F81" t="n">
-        <v>5.025984287261963</v>
+        <v>5.025984764099121</v>
       </c>
       <c r="G81" t="n">
         <v>3400</v>
@@ -3254,7 +3254,7 @@
         <v>7.909999847412109</v>
       </c>
       <c r="F82" t="n">
-        <v>5.103406429290771</v>
+        <v>5.103407382965088</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>8.609999656677246</v>
       </c>
       <c r="F83" t="n">
-        <v>5.622875690460205</v>
+        <v>5.62287425994873</v>
       </c>
       <c r="G83" t="n">
         <v>3700</v>
@@ -3324,7 +3324,7 @@
         <v>8.930000305175781</v>
       </c>
       <c r="F84" t="n">
-        <v>5.831857204437256</v>
+        <v>5.831856250762939</v>
       </c>
       <c r="G84" t="n">
         <v>8600</v>
@@ -3359,7 +3359,7 @@
         <v>8.800000190734863</v>
       </c>
       <c r="F85" t="n">
-        <v>5.746959209442139</v>
+        <v>5.746957778930664</v>
       </c>
       <c r="G85" t="n">
         <v>4000</v>
@@ -3394,7 +3394,7 @@
         <v>8.850000381469727</v>
       </c>
       <c r="F86" t="n">
-        <v>5.779611110687256</v>
+        <v>5.779612064361572</v>
       </c>
       <c r="G86" t="n">
         <v>25200</v>
@@ -3429,7 +3429,7 @@
         <v>9.890000343322754</v>
       </c>
       <c r="F87" t="n">
-        <v>6.458797454833984</v>
+        <v>6.458798408508301</v>
       </c>
       <c r="G87" t="n">
         <v>52000</v>
@@ -3464,7 +3464,7 @@
         <v>10.69999980926514</v>
       </c>
       <c r="F88" t="n">
-        <v>6.987778663635254</v>
+        <v>6.987778186798096</v>
       </c>
       <c r="G88" t="n">
         <v>58700</v>
@@ -3499,7 +3499,7 @@
         <v>10.75</v>
       </c>
       <c r="F89" t="n">
-        <v>7.020430564880371</v>
+        <v>7.020432472229004</v>
       </c>
       <c r="G89" t="n">
         <v>28900</v>
@@ -3534,7 +3534,7 @@
         <v>11.02000045776367</v>
       </c>
       <c r="F90" t="n">
-        <v>7.196757316589355</v>
+        <v>7.196760654449463</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>10.56999969482422</v>
       </c>
       <c r="F91" t="n">
-        <v>6.902881622314453</v>
+        <v>6.902882099151611</v>
       </c>
       <c r="G91" t="n">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>11.10000038146973</v>
       </c>
       <c r="F92" t="n">
-        <v>7.249002456665039</v>
+        <v>7.249004364013672</v>
       </c>
       <c r="G92" t="n">
         <v>7700</v>
@@ -3639,7 +3639,7 @@
         <v>11.59000015258789</v>
       </c>
       <c r="F93" t="n">
-        <v>7.569007396697998</v>
+        <v>7.569005489349365</v>
       </c>
       <c r="G93" t="n">
         <v>2400</v>
@@ -3674,7 +3674,7 @@
         <v>12.5</v>
       </c>
       <c r="F94" t="n">
-        <v>8.163291931152344</v>
+        <v>8.16329288482666</v>
       </c>
       <c r="G94" t="n">
         <v>1800</v>
@@ -3744,7 +3744,7 @@
         <v>14.68000030517578</v>
       </c>
       <c r="F96" t="n">
-        <v>9.712701797485352</v>
+        <v>9.712700843811035</v>
       </c>
       <c r="G96" t="n">
         <v>16400</v>
@@ -3779,7 +3779,7 @@
         <v>15.27999973297119</v>
       </c>
       <c r="F97" t="n">
-        <v>10.10967445373535</v>
+        <v>10.10967636108398</v>
       </c>
       <c r="G97" t="n">
         <v>193400</v>
@@ -3814,7 +3814,7 @@
         <v>16.04999923706055</v>
       </c>
       <c r="F98" t="n">
-        <v>10.61913013458252</v>
+        <v>10.61913108825684</v>
       </c>
       <c r="G98" t="n">
         <v>179700</v>
@@ -3849,7 +3849,7 @@
         <v>16.01000022888184</v>
       </c>
       <c r="F99" t="n">
-        <v>10.5926628112793</v>
+        <v>10.59266662597656</v>
       </c>
       <c r="G99" t="n">
         <v>367800</v>
@@ -3884,7 +3884,7 @@
         <v>16.10000038146973</v>
       </c>
       <c r="F100" t="n">
-        <v>10.65220928192139</v>
+        <v>10.65221309661865</v>
       </c>
       <c r="G100" t="n">
         <v>23700</v>
@@ -3989,7 +3989,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F103" t="n">
-        <v>11.38000297546387</v>
+        <v>11.38000202178955</v>
       </c>
       <c r="G103" t="n">
         <v>26500</v>
@@ -4024,7 +4024,7 @@
         <v>17.86000061035156</v>
       </c>
       <c r="F104" t="n">
-        <v>11.81667709350586</v>
+        <v>11.81667613983154</v>
       </c>
       <c r="G104" t="n">
         <v>35700</v>
@@ -4129,7 +4129,7 @@
         <v>23.02000045776367</v>
       </c>
       <c r="F107" t="n">
-        <v>15.28948020935059</v>
+        <v>15.28948497772217</v>
       </c>
       <c r="G107" t="n">
         <v>280200</v>
@@ -4164,7 +4164,7 @@
         <v>22.34000015258789</v>
       </c>
       <c r="F108" t="n">
-        <v>14.83783912658691</v>
+        <v>14.83784008026123</v>
       </c>
       <c r="G108" t="n">
         <v>174600</v>
@@ -4199,7 +4199,7 @@
         <v>24.36000061035156</v>
       </c>
       <c r="F109" t="n">
-        <v>16.17948722839355</v>
+        <v>16.17949104309082</v>
       </c>
       <c r="G109" t="n">
         <v>304200</v>
@@ -4234,7 +4234,7 @@
         <v>22.81999969482422</v>
       </c>
       <c r="F110" t="n">
-        <v>15.15664482116699</v>
+        <v>15.15664672851562</v>
       </c>
       <c r="G110" t="n">
         <v>75400</v>
@@ -4269,7 +4269,7 @@
         <v>21.98999977111816</v>
       </c>
       <c r="F111" t="n">
-        <v>14.60537624359131</v>
+        <v>14.60538005828857</v>
       </c>
       <c r="G111" t="n">
         <v>85200</v>
@@ -4304,7 +4304,7 @@
         <v>22.6200008392334</v>
       </c>
       <c r="F112" t="n">
-        <v>15.02381038665771</v>
+        <v>15.02380752563477</v>
       </c>
       <c r="G112" t="n">
         <v>57800</v>
@@ -4339,7 +4339,7 @@
         <v>23.98999977111816</v>
       </c>
       <c r="F113" t="n">
-        <v>15.93374252319336</v>
+        <v>15.93373680114746</v>
       </c>
       <c r="G113" t="n">
         <v>53200</v>
@@ -4374,7 +4374,7 @@
         <v>24.80999946594238</v>
       </c>
       <c r="F114" t="n">
-        <v>16.47836685180664</v>
+        <v>16.47837257385254</v>
       </c>
       <c r="G114" t="n">
         <v>45800</v>
@@ -4409,7 +4409,7 @@
         <v>26.89999961853027</v>
       </c>
       <c r="F115" t="n">
-        <v>17.86651420593262</v>
+        <v>17.86650657653809</v>
       </c>
       <c r="G115" t="n">
         <v>111900</v>
@@ -4444,7 +4444,7 @@
         <v>26.97999954223633</v>
       </c>
       <c r="F116" t="n">
-        <v>17.91964912414551</v>
+        <v>17.91964530944824</v>
       </c>
       <c r="G116" t="n">
         <v>150400</v>
@@ -4479,7 +4479,7 @@
         <v>26.04999923706055</v>
       </c>
       <c r="F117" t="n">
-        <v>17.30195617675781</v>
+        <v>17.30195808410645</v>
       </c>
       <c r="G117" t="n">
         <v>280100</v>
@@ -4549,7 +4549,7 @@
         <v>27.59000015258789</v>
       </c>
       <c r="F119" t="n">
-        <v>18.51935195922852</v>
+        <v>18.51935577392578</v>
       </c>
       <c r="G119" t="n">
         <v>98900</v>
@@ -4619,7 +4619,7 @@
         <v>30.04000091552734</v>
       </c>
       <c r="F121" t="n">
-        <v>20.16387176513672</v>
+        <v>20.16387748718262</v>
       </c>
       <c r="G121" t="n">
         <v>99800</v>
@@ -4654,7 +4654,7 @@
         <v>31.11000061035156</v>
       </c>
       <c r="F122" t="n">
-        <v>20.88209533691406</v>
+        <v>20.8820972442627</v>
       </c>
       <c r="G122" t="n">
         <v>94600</v>
@@ -4689,7 +4689,7 @@
         <v>32.91999816894531</v>
       </c>
       <c r="F123" t="n">
-        <v>22.0970287322998</v>
+        <v>22.09703254699707</v>
       </c>
       <c r="G123" t="n">
         <v>112400</v>
@@ -4724,7 +4724,7 @@
         <v>30.72999954223633</v>
       </c>
       <c r="F124" t="n">
-        <v>20.62702941894531</v>
+        <v>20.62703132629395</v>
       </c>
       <c r="G124" t="n">
         <v>101300</v>
@@ -4759,7 +4759,7 @@
         <v>30.88999938964844</v>
       </c>
       <c r="F125" t="n">
-        <v>20.73442268371582</v>
+        <v>20.73442840576172</v>
       </c>
       <c r="G125" t="n">
         <v>336400</v>
@@ -4829,7 +4829,7 @@
         <v>31.13999938964844</v>
       </c>
       <c r="F127" t="n">
-        <v>20.90223693847656</v>
+        <v>20.90223503112793</v>
       </c>
       <c r="G127" t="n">
         <v>72000</v>
@@ -4899,7 +4899,7 @@
         <v>33.41999816894531</v>
       </c>
       <c r="F129" t="n">
-        <v>22.43264579772949</v>
+        <v>22.43264389038086</v>
       </c>
       <c r="G129" t="n">
         <v>46400</v>
@@ -4934,7 +4934,7 @@
         <v>35.08000183105469</v>
       </c>
       <c r="F130" t="n">
-        <v>23.54689788818359</v>
+        <v>23.54690170288086</v>
       </c>
       <c r="G130" t="n">
         <v>81700</v>
@@ -4969,7 +4969,7 @@
         <v>36.9900016784668</v>
       </c>
       <c r="F131" t="n">
-        <v>24.82895469665527</v>
+        <v>24.82895851135254</v>
       </c>
       <c r="G131" t="n">
         <v>159400</v>
@@ -5004,7 +5004,7 @@
         <v>36.75</v>
       </c>
       <c r="F132" t="n">
-        <v>24.66785430908203</v>
+        <v>24.66786193847656</v>
       </c>
       <c r="G132" t="n">
         <v>603300</v>
@@ -5039,7 +5039,7 @@
         <v>35.79000091552734</v>
       </c>
       <c r="F133" t="n">
-        <v>24.02347755432129</v>
+        <v>24.02346992492676</v>
       </c>
       <c r="G133" t="n">
         <v>179300</v>
@@ -5144,7 +5144,7 @@
         <v>41.16999816894531</v>
       </c>
       <c r="F136" t="n">
-        <v>27.63470840454102</v>
+        <v>27.63471031188965</v>
       </c>
       <c r="G136" t="n">
         <v>92000</v>
@@ -5179,7 +5179,7 @@
         <v>40.02000045776367</v>
       </c>
       <c r="F137" t="n">
-        <v>26.8627986907959</v>
+        <v>26.86279106140137</v>
       </c>
       <c r="G137" t="n">
         <v>133200</v>
@@ -5214,7 +5214,7 @@
         <v>37.91999816894531</v>
       </c>
       <c r="F138" t="n">
-        <v>25.45319938659668</v>
+        <v>25.45320129394531</v>
       </c>
       <c r="G138" t="n">
         <v>373900</v>
@@ -5249,7 +5249,7 @@
         <v>37.2400016784668</v>
       </c>
       <c r="F139" t="n">
-        <v>24.99676704406738</v>
+        <v>24.99677085876465</v>
       </c>
       <c r="G139" t="n">
         <v>76200</v>
@@ -5284,7 +5284,7 @@
         <v>37.59999847412109</v>
       </c>
       <c r="F140" t="n">
-        <v>25.23841094970703</v>
+        <v>25.23840522766113</v>
       </c>
       <c r="G140" t="n">
         <v>57000</v>
@@ -5319,7 +5319,7 @@
         <v>40.7599983215332</v>
       </c>
       <c r="F141" t="n">
-        <v>27.3595027923584</v>
+        <v>27.3595085144043</v>
       </c>
       <c r="G141" t="n">
         <v>74800</v>
@@ -5389,7 +5389,7 @@
         <v>36.88000106811523</v>
       </c>
       <c r="F143" t="n">
-        <v>25.25092887878418</v>
+        <v>25.25092506408691</v>
       </c>
       <c r="G143" t="n">
         <v>75300</v>
@@ -5424,7 +5424,7 @@
         <v>32.72000122070312</v>
       </c>
       <c r="F144" t="n">
-        <v>22.40267372131348</v>
+        <v>22.40266990661621</v>
       </c>
       <c r="G144" t="n">
         <v>423200</v>
@@ -5459,7 +5459,7 @@
         <v>33.11000061035156</v>
       </c>
       <c r="F145" t="n">
-        <v>22.66970062255859</v>
+        <v>22.66969299316406</v>
       </c>
       <c r="G145" t="n">
         <v>61400</v>
@@ -5494,7 +5494,7 @@
         <v>33.61999893188477</v>
       </c>
       <c r="F146" t="n">
-        <v>23.01887893676758</v>
+        <v>23.01888084411621</v>
       </c>
       <c r="G146" t="n">
         <v>51200</v>
@@ -5529,7 +5529,7 @@
         <v>37.16999816894531</v>
       </c>
       <c r="F147" t="n">
-        <v>25.44948959350586</v>
+        <v>25.44948387145996</v>
       </c>
       <c r="G147" t="n">
         <v>81100</v>
@@ -5564,7 +5564,7 @@
         <v>38.79000091552734</v>
       </c>
       <c r="F148" t="n">
-        <v>26.55866622924805</v>
+        <v>26.55866813659668</v>
       </c>
       <c r="G148" t="n">
         <v>141300</v>
@@ -5599,7 +5599,7 @@
         <v>34.83000183105469</v>
       </c>
       <c r="F149" t="n">
-        <v>24.09875297546387</v>
+        <v>24.0987548828125</v>
       </c>
       <c r="G149" t="n">
         <v>464000</v>
@@ -5634,7 +5634,7 @@
         <v>31.61000061035156</v>
       </c>
       <c r="F150" t="n">
-        <v>21.87084770202637</v>
+        <v>21.87084579467773</v>
       </c>
       <c r="G150" t="n">
         <v>76400</v>
@@ -5669,7 +5669,7 @@
         <v>29.54999923706055</v>
       </c>
       <c r="F151" t="n">
-        <v>20.44553565979004</v>
+        <v>20.44554138183594</v>
       </c>
       <c r="G151" t="n">
         <v>187100</v>
@@ -5704,7 +5704,7 @@
         <v>21.86000061035156</v>
       </c>
       <c r="F152" t="n">
-        <v>15.12485980987549</v>
+        <v>15.12485313415527</v>
       </c>
       <c r="G152" t="n">
         <v>122400</v>
@@ -5739,7 +5739,7 @@
         <v>14.02999973297119</v>
       </c>
       <c r="F153" t="n">
-        <v>9.707304954528809</v>
+        <v>9.707306861877441</v>
       </c>
       <c r="G153" t="n">
         <v>95000</v>
@@ -5774,7 +5774,7 @@
         <v>12.22999954223633</v>
       </c>
       <c r="F154" t="n">
-        <v>8.461892127990723</v>
+        <v>8.461893081665039</v>
       </c>
       <c r="G154" t="n">
         <v>50900</v>
@@ -5844,7 +5844,7 @@
         <v>11.97999954223633</v>
       </c>
       <c r="F156" t="n">
-        <v>8.569673538208008</v>
+        <v>8.569671630859375</v>
       </c>
       <c r="G156" t="n">
         <v>36800</v>
@@ -5949,7 +5949,7 @@
         <v>13.77000045776367</v>
       </c>
       <c r="F159" t="n">
-        <v>9.850116729736328</v>
+        <v>9.850115776062012</v>
       </c>
       <c r="G159" t="n">
         <v>50100</v>
@@ -5984,7 +5984,7 @@
         <v>16.77000045776367</v>
       </c>
       <c r="F160" t="n">
-        <v>11.99611186981201</v>
+        <v>11.99611282348633</v>
       </c>
       <c r="G160" t="n">
         <v>80700</v>
@@ -6019,7 +6019,7 @@
         <v>16.14999961853027</v>
       </c>
       <c r="F161" t="n">
-        <v>11.78695392608643</v>
+        <v>11.78695297241211</v>
       </c>
       <c r="G161" t="n">
         <v>28000</v>
@@ -6054,7 +6054,7 @@
         <v>17.51000022888184</v>
       </c>
       <c r="F162" t="n">
-        <v>12.77954006195068</v>
+        <v>12.77953624725342</v>
       </c>
       <c r="G162" t="n">
         <v>60500</v>
@@ -6089,7 +6089,7 @@
         <v>20.32999992370605</v>
       </c>
       <c r="F163" t="n">
-        <v>14.83769512176514</v>
+        <v>14.83769226074219</v>
       </c>
       <c r="G163" t="n">
         <v>325000</v>
@@ -6124,7 +6124,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F164" t="n">
-        <v>16.01273918151855</v>
+        <v>16.01274299621582</v>
       </c>
       <c r="G164" t="n">
         <v>231500</v>
@@ -6159,7 +6159,7 @@
         <v>20.54000091552734</v>
       </c>
       <c r="F165" t="n">
-        <v>14.99096012115479</v>
+        <v>14.99096202850342</v>
       </c>
       <c r="G165" t="n">
         <v>230900</v>
@@ -6194,7 +6194,7 @@
         <v>21.23999977111816</v>
       </c>
       <c r="F166" t="n">
-        <v>15.50185108184814</v>
+        <v>15.50185012817383</v>
       </c>
       <c r="G166" t="n">
         <v>106400</v>
@@ -6229,7 +6229,7 @@
         <v>19.55999946594238</v>
       </c>
       <c r="F167" t="n">
-        <v>14.70667171478271</v>
+        <v>14.70667457580566</v>
       </c>
       <c r="G167" t="n">
         <v>113500</v>
@@ -6264,7 +6264,7 @@
         <v>18.79999923706055</v>
       </c>
       <c r="F168" t="n">
-        <v>14.13524913787842</v>
+        <v>14.13524723052979</v>
       </c>
       <c r="G168" t="n">
         <v>131600</v>
@@ -6334,7 +6334,7 @@
         <v>19.75</v>
       </c>
       <c r="F170" t="n">
-        <v>14.84953308105469</v>
+        <v>14.84952926635742</v>
       </c>
       <c r="G170" t="n">
         <v>119800</v>
@@ -6369,7 +6369,7 @@
         <v>19.76000022888184</v>
       </c>
       <c r="F171" t="n">
-        <v>14.85704517364502</v>
+        <v>14.85704898834229</v>
       </c>
       <c r="G171" t="n">
         <v>64700</v>
@@ -6404,7 +6404,7 @@
         <v>16.6200008392334</v>
       </c>
       <c r="F172" t="n">
-        <v>12.49616050720215</v>
+        <v>12.49615955352783</v>
       </c>
       <c r="G172" t="n">
         <v>73600</v>
@@ -6439,7 +6439,7 @@
         <v>15.27000045776367</v>
       </c>
       <c r="F173" t="n">
-        <v>11.59653854370117</v>
+        <v>11.59653759002686</v>
       </c>
       <c r="G173" t="n">
         <v>107000</v>
@@ -6474,7 +6474,7 @@
         <v>18.19000053405762</v>
       </c>
       <c r="F174" t="n">
-        <v>13.81408405303955</v>
+        <v>13.81407928466797</v>
       </c>
       <c r="G174" t="n">
         <v>67800</v>
@@ -6509,7 +6509,7 @@
         <v>17.14999961853027</v>
       </c>
       <c r="F175" t="n">
-        <v>13.02427101135254</v>
+        <v>13.02427196502686</v>
       </c>
       <c r="G175" t="n">
         <v>425100</v>
@@ -6544,7 +6544,7 @@
         <v>19.70999908447266</v>
       </c>
       <c r="F176" t="n">
-        <v>14.96841812133789</v>
+        <v>14.96841526031494</v>
       </c>
       <c r="G176" t="n">
         <v>84600</v>
@@ -6579,7 +6579,7 @@
         <v>21.06999969482422</v>
       </c>
       <c r="F177" t="n">
-        <v>16.00124931335449</v>
+        <v>16.00124549865723</v>
       </c>
       <c r="G177" t="n">
         <v>60400</v>
@@ -6614,7 +6614,7 @@
         <v>19.17000007629395</v>
       </c>
       <c r="F178" t="n">
-        <v>14.55832290649414</v>
+        <v>14.55832481384277</v>
       </c>
       <c r="G178" t="n">
         <v>226200</v>
@@ -6684,7 +6684,7 @@
         <v>22.54999923706055</v>
       </c>
       <c r="F180" t="n">
-        <v>17.19123840332031</v>
+        <v>17.19123458862305</v>
       </c>
       <c r="G180" t="n">
         <v>158100</v>
@@ -6719,7 +6719,7 @@
         <v>22.70999908447266</v>
       </c>
       <c r="F181" t="n">
-        <v>17.3132152557373</v>
+        <v>17.31321334838867</v>
       </c>
       <c r="G181" t="n">
         <v>70500</v>
@@ -6754,7 +6754,7 @@
         <v>23.39999961853027</v>
       </c>
       <c r="F182" t="n">
-        <v>17.8392448425293</v>
+        <v>17.83924102783203</v>
       </c>
       <c r="G182" t="n">
         <v>70200</v>
@@ -6789,7 +6789,7 @@
         <v>23.92000007629395</v>
       </c>
       <c r="F183" t="n">
-        <v>18.23566818237305</v>
+        <v>18.23566627502441</v>
       </c>
       <c r="G183" t="n">
         <v>68000</v>
@@ -6824,7 +6824,7 @@
         <v>23.28000068664551</v>
       </c>
       <c r="F184" t="n">
-        <v>17.74775505065918</v>
+        <v>17.74776077270508</v>
       </c>
       <c r="G184" t="n">
         <v>95000</v>
@@ -6859,7 +6859,7 @@
         <v>22.76000022888184</v>
       </c>
       <c r="F185" t="n">
-        <v>17.64793014526367</v>
+        <v>17.6479320526123</v>
       </c>
       <c r="G185" t="n">
         <v>41900</v>
@@ -6894,7 +6894,7 @@
         <v>21.11000061035156</v>
       </c>
       <c r="F186" t="n">
-        <v>16.3685302734375</v>
+        <v>16.36853218078613</v>
       </c>
       <c r="G186" t="n">
         <v>274700</v>
@@ -6929,7 +6929,7 @@
         <v>18.67000007629395</v>
       </c>
       <c r="F187" t="n">
-        <v>14.47657299041748</v>
+        <v>14.47657489776611</v>
       </c>
       <c r="G187" t="n">
         <v>65900</v>
@@ -6964,7 +6964,7 @@
         <v>15.01000022888184</v>
       </c>
       <c r="F188" t="n">
-        <v>11.63863658905029</v>
+        <v>11.63863945007324</v>
       </c>
       <c r="G188" t="n">
         <v>80000</v>
@@ -7034,7 +7034,7 @@
         <v>14.73999977111816</v>
       </c>
       <c r="F190" t="n">
-        <v>11.42928314208984</v>
+        <v>11.42928218841553</v>
       </c>
       <c r="G190" t="n">
         <v>92800</v>
@@ -7069,7 +7069,7 @@
         <v>14.22000026702881</v>
       </c>
       <c r="F191" t="n">
-        <v>11.20128059387207</v>
+        <v>11.20127868652344</v>
       </c>
       <c r="G191" t="n">
         <v>62400</v>
@@ -7104,7 +7104,7 @@
         <v>15.71000003814697</v>
       </c>
       <c r="F192" t="n">
-        <v>12.37497234344482</v>
+        <v>12.37497329711914</v>
       </c>
       <c r="G192" t="n">
         <v>1108700</v>
@@ -7174,7 +7174,7 @@
         <v>16.42000007629395</v>
       </c>
       <c r="F194" t="n">
-        <v>12.93424987792969</v>
+        <v>12.93424797058105</v>
       </c>
       <c r="G194" t="n">
         <v>33100</v>
@@ -7209,7 +7209,7 @@
         <v>16.11000061035156</v>
       </c>
       <c r="F195" t="n">
-        <v>12.69005966186523</v>
+        <v>12.69005680084229</v>
       </c>
       <c r="G195" t="n">
         <v>67000</v>
@@ -7244,7 +7244,7 @@
         <v>13.88000011444092</v>
       </c>
       <c r="F196" t="n">
-        <v>10.93345928192139</v>
+        <v>10.93345737457275</v>
       </c>
       <c r="G196" t="n">
         <v>113200</v>
@@ -7279,7 +7279,7 @@
         <v>14.39000034332275</v>
       </c>
       <c r="F197" t="n">
-        <v>11.55797672271729</v>
+        <v>11.5579776763916</v>
       </c>
       <c r="G197" t="n">
         <v>22300</v>
@@ -7314,7 +7314,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="F198" t="n">
-        <v>11.29292106628418</v>
+        <v>11.29292297363281</v>
       </c>
       <c r="G198" t="n">
         <v>37900</v>
@@ -7349,7 +7349,7 @@
         <v>14.47000026702881</v>
       </c>
       <c r="F199" t="n">
-        <v>11.62223243713379</v>
+        <v>11.62223339080811</v>
       </c>
       <c r="G199" t="n">
         <v>37500</v>
@@ -7384,7 +7384,7 @@
         <v>15.32999992370605</v>
       </c>
       <c r="F200" t="n">
-        <v>12.31297969818115</v>
+        <v>12.31298065185547</v>
       </c>
       <c r="G200" t="n">
         <v>37300</v>
@@ -7524,7 +7524,7 @@
         <v>18.69000053405762</v>
       </c>
       <c r="F204" t="n">
-        <v>15.07118606567383</v>
+        <v>15.0711841583252</v>
       </c>
       <c r="G204" t="n">
         <v>136200</v>
@@ -7559,7 +7559,7 @@
         <v>17.95999908447266</v>
       </c>
       <c r="F205" t="n">
-        <v>14.48253059387207</v>
+        <v>14.48252964019775</v>
       </c>
       <c r="G205" t="n">
         <v>110000</v>
@@ -7629,7 +7629,7 @@
         <v>17.97999954223633</v>
       </c>
       <c r="F207" t="n">
-        <v>14.49865436553955</v>
+        <v>14.49865341186523</v>
       </c>
       <c r="G207" t="n">
         <v>43200</v>
@@ -7664,7 +7664,7 @@
         <v>17.81999969482422</v>
       </c>
       <c r="F208" t="n">
-        <v>14.3696346282959</v>
+        <v>14.36963939666748</v>
       </c>
       <c r="G208" t="n">
         <v>42900</v>
@@ -7699,7 +7699,7 @@
         <v>16.23999977111816</v>
       </c>
       <c r="F209" t="n">
-        <v>13.31219577789307</v>
+        <v>13.31219673156738</v>
       </c>
       <c r="G209" t="n">
         <v>42600</v>
@@ -7734,7 +7734,7 @@
         <v>17.47999954223633</v>
       </c>
       <c r="F210" t="n">
-        <v>14.32864189147949</v>
+        <v>14.32864665985107</v>
       </c>
       <c r="G210" t="n">
         <v>45800</v>
@@ -7769,7 +7769,7 @@
         <v>17.90999984741211</v>
       </c>
       <c r="F211" t="n">
-        <v>14.68112277984619</v>
+        <v>14.68112373352051</v>
       </c>
       <c r="G211" t="n">
         <v>77800</v>
@@ -7804,7 +7804,7 @@
         <v>19.31999969482422</v>
       </c>
       <c r="F212" t="n">
-        <v>15.83691883087158</v>
+        <v>15.83692264556885</v>
       </c>
       <c r="G212" t="n">
         <v>35800</v>
@@ -7839,7 +7839,7 @@
         <v>20.01000022888184</v>
       </c>
       <c r="F213" t="n">
-        <v>16.40252494812012</v>
+        <v>16.40252876281738</v>
       </c>
       <c r="G213" t="n">
         <v>48200</v>
@@ -7944,7 +7944,7 @@
         <v>19.5</v>
       </c>
       <c r="F216" t="n">
-        <v>16.09553527832031</v>
+        <v>16.09553146362305</v>
       </c>
       <c r="G216" t="n">
         <v>671000</v>
@@ -7979,7 +7979,7 @@
         <v>20.3799991607666</v>
       </c>
       <c r="F217" t="n">
-        <v>16.82189750671387</v>
+        <v>16.82189559936523</v>
       </c>
       <c r="G217" t="n">
         <v>71700</v>
@@ -8049,7 +8049,7 @@
         <v>20.27000045776367</v>
       </c>
       <c r="F219" t="n">
-        <v>16.73110580444336</v>
+        <v>16.73110008239746</v>
       </c>
       <c r="G219" t="n">
         <v>47700</v>
@@ -8119,7 +8119,7 @@
         <v>19.57999992370605</v>
       </c>
       <c r="F221" t="n">
-        <v>16.59800910949707</v>
+        <v>16.59800338745117</v>
       </c>
       <c r="G221" t="n">
         <v>55300</v>
@@ -8189,7 +8189,7 @@
         <v>17.53000068664551</v>
       </c>
       <c r="F223" t="n">
-        <v>14.86021709442139</v>
+        <v>14.8602180480957</v>
       </c>
       <c r="G223" t="n">
         <v>142000</v>
@@ -8259,7 +8259,7 @@
         <v>16.09000015258789</v>
       </c>
       <c r="F225" t="n">
-        <v>13.63952350616455</v>
+        <v>13.63952541351318</v>
       </c>
       <c r="G225" t="n">
         <v>250500</v>
@@ -8294,7 +8294,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F226" t="n">
-        <v>13.83449649810791</v>
+        <v>13.83449745178223</v>
       </c>
       <c r="G226" t="n">
         <v>110400</v>
@@ -8434,7 +8434,7 @@
         <v>15.77000045776367</v>
       </c>
       <c r="F230" t="n">
-        <v>13.43368339538574</v>
+        <v>13.43368244171143</v>
       </c>
       <c r="G230" t="n">
         <v>23200</v>
@@ -8469,7 +8469,7 @@
         <v>16.8700008392334</v>
       </c>
       <c r="F231" t="n">
-        <v>14.37071800231934</v>
+        <v>14.37071895599365</v>
       </c>
       <c r="G231" t="n">
         <v>28500</v>
@@ -8574,7 +8574,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="F234" t="n">
-        <v>14.0979585647583</v>
+        <v>14.09795761108398</v>
       </c>
       <c r="G234" t="n">
         <v>32900</v>
@@ -8609,7 +8609,7 @@
         <v>15.55000019073486</v>
       </c>
       <c r="F235" t="n">
-        <v>13.39176559448242</v>
+        <v>13.39176845550537</v>
       </c>
       <c r="G235" t="n">
         <v>39700</v>
@@ -8679,7 +8679,7 @@
         <v>15.97999954223633</v>
       </c>
       <c r="F237" t="n">
-        <v>13.76208400726318</v>
+        <v>13.76208591461182</v>
       </c>
       <c r="G237" t="n">
         <v>43900</v>
@@ -8714,7 +8714,7 @@
         <v>15.72999954223633</v>
       </c>
       <c r="F238" t="n">
-        <v>13.54678249359131</v>
+        <v>13.54678440093994</v>
       </c>
       <c r="G238" t="n">
         <v>26300</v>
@@ -8749,7 +8749,7 @@
         <v>15.64999961853027</v>
       </c>
       <c r="F239" t="n">
-        <v>13.52685165405273</v>
+        <v>13.52685356140137</v>
       </c>
       <c r="G239" t="n">
         <v>133900</v>
@@ -8959,7 +8959,7 @@
         <v>14.17000007629395</v>
       </c>
       <c r="F245" t="n">
-        <v>12.47118473052979</v>
+        <v>12.4711856842041</v>
       </c>
       <c r="G245" t="n">
         <v>145300</v>
@@ -8994,7 +8994,7 @@
         <v>15.15999984741211</v>
       </c>
       <c r="F246" t="n">
-        <v>13.34249401092529</v>
+        <v>13.34249496459961</v>
       </c>
       <c r="G246" t="n">
         <v>33700</v>
@@ -9064,7 +9064,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F248" t="n">
-        <v>14.36342430114746</v>
+        <v>14.36342620849609</v>
       </c>
       <c r="G248" t="n">
         <v>107900</v>
@@ -9099,7 +9099,7 @@
         <v>16.44000053405762</v>
       </c>
       <c r="F249" t="n">
-        <v>14.46903896331787</v>
+        <v>14.46903800964355</v>
       </c>
       <c r="G249" t="n">
         <v>104100</v>
@@ -9169,7 +9169,7 @@
         <v>16.53000068664551</v>
       </c>
       <c r="F251" t="n">
-        <v>14.59806632995605</v>
+        <v>14.59806728363037</v>
       </c>
       <c r="G251" t="n">
         <v>194200</v>
@@ -9204,7 +9204,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F252" t="n">
-        <v>15.4105396270752</v>
+        <v>15.41053867340088</v>
       </c>
       <c r="G252" t="n">
         <v>218800</v>
@@ -9274,7 +9274,7 @@
         <v>18.17000007629395</v>
       </c>
       <c r="F254" t="n">
-        <v>16.0463924407959</v>
+        <v>16.04639053344727</v>
       </c>
       <c r="G254" t="n">
         <v>76200</v>
@@ -9309,7 +9309,7 @@
         <v>19.59000015258789</v>
       </c>
       <c r="F255" t="n">
-        <v>17.30043029785156</v>
+        <v>17.30042839050293</v>
       </c>
       <c r="G255" t="n">
         <v>232300</v>
@@ -9414,7 +9414,7 @@
         <v>22.85000038146973</v>
       </c>
       <c r="F258" t="n">
-        <v>20.47968482971191</v>
+        <v>20.47968292236328</v>
       </c>
       <c r="G258" t="n">
         <v>306900</v>
@@ -9449,7 +9449,7 @@
         <v>22.93000030517578</v>
       </c>
       <c r="F259" t="n">
-        <v>20.55138778686523</v>
+        <v>20.55138969421387</v>
       </c>
       <c r="G259" t="n">
         <v>268700</v>
@@ -9484,7 +9484,7 @@
         <v>23.42000007629395</v>
       </c>
       <c r="F260" t="n">
-        <v>20.99055862426758</v>
+        <v>20.99055480957031</v>
       </c>
       <c r="G260" t="n">
         <v>57300</v>
@@ -9554,7 +9554,7 @@
         <v>24.03000068664551</v>
       </c>
       <c r="F262" t="n">
-        <v>21.53728103637695</v>
+        <v>21.53728294372559</v>
       </c>
       <c r="G262" t="n">
         <v>177000</v>
@@ -9589,7 +9589,7 @@
         <v>24.63999938964844</v>
       </c>
       <c r="F263" t="n">
-        <v>22.2573299407959</v>
+        <v>22.25732612609863</v>
       </c>
       <c r="G263" t="n">
         <v>182900</v>
@@ -9624,7 +9624,7 @@
         <v>26.75</v>
       </c>
       <c r="F264" t="n">
-        <v>24.16329383850098</v>
+        <v>24.16329193115234</v>
       </c>
       <c r="G264" t="n">
         <v>153600</v>
@@ -9659,7 +9659,7 @@
         <v>25.20000076293945</v>
       </c>
       <c r="F265" t="n">
-        <v>22.7631778717041</v>
+        <v>22.76317596435547</v>
       </c>
       <c r="G265" t="n">
         <v>376900</v>
@@ -9729,7 +9729,7 @@
         <v>25.20999908447266</v>
       </c>
       <c r="F267" t="n">
-        <v>22.7722110748291</v>
+        <v>22.77220916748047</v>
       </c>
       <c r="G267" t="n">
         <v>31200</v>
@@ -9764,7 +9764,7 @@
         <v>23.73999977111816</v>
       </c>
       <c r="F268" t="n">
-        <v>21.44436073303223</v>
+        <v>21.44435691833496</v>
       </c>
       <c r="G268" t="n">
         <v>51800</v>
@@ -9834,7 +9834,7 @@
         <v>23.79999923706055</v>
       </c>
       <c r="F270" t="n">
-        <v>21.96043586730957</v>
+        <v>21.9604377746582</v>
       </c>
       <c r="G270" t="n">
         <v>78000</v>
@@ -9974,7 +9974,7 @@
         <v>20.65999984741211</v>
       </c>
       <c r="F274" t="n">
-        <v>19.06313705444336</v>
+        <v>19.06313896179199</v>
       </c>
       <c r="G274" t="n">
         <v>23100</v>
@@ -10009,7 +10009,7 @@
         <v>18.36000061035156</v>
       </c>
       <c r="F275" t="n">
-        <v>17.16503715515137</v>
+        <v>17.16503524780273</v>
       </c>
       <c r="G275" t="n">
         <v>210900</v>
@@ -10114,7 +10114,7 @@
         <v>19.88999938964844</v>
       </c>
       <c r="F278" t="n">
-        <v>18.5954532623291</v>
+        <v>18.59545516967773</v>
       </c>
       <c r="G278" t="n">
         <v>3700</v>
@@ -10289,7 +10289,7 @@
         <v>18.84000015258789</v>
       </c>
       <c r="F283" t="n">
-        <v>18.0966739654541</v>
+        <v>18.09667587280273</v>
       </c>
       <c r="G283" t="n">
         <v>3000</v>
@@ -10464,7 +10464,7 @@
         <v>19.98999977111816</v>
       </c>
       <c r="F288" t="n">
-        <v>19.3095645904541</v>
+        <v>19.30956268310547</v>
       </c>
       <c r="G288" t="n">
         <v>19000</v>
@@ -10569,7 +10569,7 @@
         <v>14.39999961853027</v>
       </c>
       <c r="F291" t="n">
-        <v>13.90984058380127</v>
+        <v>13.90984153747559</v>
       </c>
       <c r="G291" t="n">
         <v>29600</v>
@@ -10674,7 +10674,7 @@
         <v>14.85000038146973</v>
       </c>
       <c r="F294" t="n">
-        <v>14.34452342987061</v>
+        <v>14.34452438354492</v>
       </c>
       <c r="G294" t="n">
         <v>27400</v>
@@ -10779,7 +10779,7 @@
         <v>14.23999977111816</v>
       </c>
       <c r="F297" t="n">
-        <v>13.75528621673584</v>
+        <v>13.75528717041016</v>
       </c>
       <c r="G297" t="n">
         <v>7500</v>
@@ -10814,7 +10814,7 @@
         <v>18.06999969482422</v>
       </c>
       <c r="F298" t="n">
-        <v>17.45491981506348</v>
+        <v>17.45491790771484</v>
       </c>
       <c r="G298" t="n">
         <v>75700</v>
@@ -10954,7 +10954,7 @@
         <v>21.94000053405762</v>
       </c>
       <c r="F302" t="n">
-        <v>21.41298484802246</v>
+        <v>21.41298294067383</v>
       </c>
       <c r="G302" t="n">
         <v>88600</v>
@@ -11298,7 +11298,7 @@
         <v>26.01499938964844</v>
       </c>
       <c r="D312" t="n">
-        <v>25.94000053405762</v>
+        <v>25.95999908447266</v>
       </c>
       <c r="E312" t="n">
         <v>26.01499938964844</v>
